--- a/Group Allocator.xlsx
+++ b/Group Allocator.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Dropbox\Work\ENGGEN403\group-allocator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G545"/>
+  <dimension ref="B1:G508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +438,7 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>1.7297517297516496E-2</v>
+        <v>7.9999999796663168E-2</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -446,7 +446,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>5.494505494505475E-3</v>
+        <v>3.9999999991036539E-2</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -504,6 +504,9 @@
       <c r="E9" t="s">
         <v>8</v>
       </c>
+      <c r="F9">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -518,6 +521,9 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -532,6 +538,9 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -546,6 +555,9 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
@@ -560,6 +572,9 @@
       <c r="E13" t="s">
         <v>8</v>
       </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -574,6 +589,9 @@
       <c r="E14" t="s">
         <v>9</v>
       </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -588,6 +606,9 @@
       <c r="E15" t="s">
         <v>9</v>
       </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -602,8 +623,11 @@
       <c r="E16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>9</v>
       </c>
@@ -616,8 +640,11 @@
       <c r="E17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>10</v>
       </c>
@@ -630,8 +657,11 @@
       <c r="E18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>11</v>
       </c>
@@ -644,8 +674,11 @@
       <c r="E19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>12</v>
       </c>
@@ -658,8 +691,11 @@
       <c r="E20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>13</v>
       </c>
@@ -672,8 +708,11 @@
       <c r="E21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>14</v>
       </c>
@@ -686,8 +725,11 @@
       <c r="E22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>15</v>
       </c>
@@ -700,8 +742,11 @@
       <c r="E23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>16</v>
       </c>
@@ -714,8 +759,11 @@
       <c r="E24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>17</v>
       </c>
@@ -728,8 +776,11 @@
       <c r="E25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>18</v>
       </c>
@@ -742,8 +793,11 @@
       <c r="E26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>19</v>
       </c>
@@ -756,8 +810,11 @@
       <c r="E27" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>20</v>
       </c>
@@ -770,8 +827,11 @@
       <c r="E28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>21</v>
       </c>
@@ -784,8 +844,11 @@
       <c r="E29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>22</v>
       </c>
@@ -798,8 +861,11 @@
       <c r="E30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>23</v>
       </c>
@@ -812,8 +878,11 @@
       <c r="E31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>24</v>
       </c>
@@ -826,8 +895,11 @@
       <c r="E32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>25</v>
       </c>
@@ -840,8 +912,11 @@
       <c r="E33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>26</v>
       </c>
@@ -854,8 +929,11 @@
       <c r="E34" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>27</v>
       </c>
@@ -868,8 +946,11 @@
       <c r="E35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>28</v>
       </c>
@@ -882,8 +963,11 @@
       <c r="E36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>29</v>
       </c>
@@ -896,8 +980,11 @@
       <c r="E37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>30</v>
       </c>
@@ -910,8 +997,11 @@
       <c r="E38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>31</v>
       </c>
@@ -924,8 +1014,11 @@
       <c r="E39" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>32</v>
       </c>
@@ -938,8 +1031,11 @@
       <c r="E40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>33</v>
       </c>
@@ -952,8 +1048,11 @@
       <c r="E41" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>34</v>
       </c>
@@ -966,8 +1065,11 @@
       <c r="E42" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>35</v>
       </c>
@@ -980,8 +1082,11 @@
       <c r="E43" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>36</v>
       </c>
@@ -994,8 +1099,11 @@
       <c r="E44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>37</v>
       </c>
@@ -1008,8 +1116,11 @@
       <c r="E45" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>38</v>
       </c>
@@ -1022,8 +1133,11 @@
       <c r="E46" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>39</v>
       </c>
@@ -1036,8 +1150,11 @@
       <c r="E47" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>40</v>
       </c>
@@ -1050,8 +1167,11 @@
       <c r="E48" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>41</v>
       </c>
@@ -1064,8 +1184,11 @@
       <c r="E49" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>42</v>
       </c>
@@ -1078,8 +1201,11 @@
       <c r="E50" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>43</v>
       </c>
@@ -1092,8 +1218,11 @@
       <c r="E51" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>44</v>
       </c>
@@ -1106,8 +1235,11 @@
       <c r="E52" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>45</v>
       </c>
@@ -1120,8 +1252,11 @@
       <c r="E53" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>46</v>
       </c>
@@ -1134,8 +1269,11 @@
       <c r="E54" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>47</v>
       </c>
@@ -1148,8 +1286,11 @@
       <c r="E55" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>48</v>
       </c>
@@ -1162,8 +1303,11 @@
       <c r="E56" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>49</v>
       </c>
@@ -1176,8 +1320,11 @@
       <c r="E57" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>50</v>
       </c>
@@ -1190,8 +1337,11 @@
       <c r="E58" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>51</v>
       </c>
@@ -1204,8 +1354,11 @@
       <c r="E59" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>52</v>
       </c>
@@ -1218,8 +1371,11 @@
       <c r="E60" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>53</v>
       </c>
@@ -1232,8 +1388,11 @@
       <c r="E61" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>54</v>
       </c>
@@ -1246,8 +1405,11 @@
       <c r="E62" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>55</v>
       </c>
@@ -1260,8 +1422,11 @@
       <c r="E63" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>56</v>
       </c>
@@ -1274,8 +1439,11 @@
       <c r="E64" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>57</v>
       </c>
@@ -1288,8 +1456,11 @@
       <c r="E65" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>58</v>
       </c>
@@ -1302,8 +1473,11 @@
       <c r="E66" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>59</v>
       </c>
@@ -1316,8 +1490,11 @@
       <c r="E67" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>60</v>
       </c>
@@ -1330,8 +1507,11 @@
       <c r="E68" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>61</v>
       </c>
@@ -1344,8 +1524,11 @@
       <c r="E69" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>62</v>
       </c>
@@ -1358,8 +1541,11 @@
       <c r="E70" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>63</v>
       </c>
@@ -1372,8 +1558,11 @@
       <c r="E71" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>64</v>
       </c>
@@ -1386,8 +1575,11 @@
       <c r="E72" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>65</v>
       </c>
@@ -1400,8 +1592,11 @@
       <c r="E73" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>66</v>
       </c>
@@ -1414,8 +1609,11 @@
       <c r="E74" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>67</v>
       </c>
@@ -1428,8 +1626,11 @@
       <c r="E75" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>68</v>
       </c>
@@ -1442,8 +1643,11 @@
       <c r="E76" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>69</v>
       </c>
@@ -1456,8 +1660,11 @@
       <c r="E77" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>70</v>
       </c>
@@ -1470,8 +1677,11 @@
       <c r="E78" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>71</v>
       </c>
@@ -1484,8 +1694,11 @@
       <c r="E79" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>72</v>
       </c>
@@ -1498,8 +1711,11 @@
       <c r="E80" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>73</v>
       </c>
@@ -1512,8 +1728,11 @@
       <c r="E81" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>74</v>
       </c>
@@ -1526,8 +1745,11 @@
       <c r="E82" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>75</v>
       </c>
@@ -1540,8 +1762,11 @@
       <c r="E83" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>76</v>
       </c>
@@ -1554,8 +1779,11 @@
       <c r="E84" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>77</v>
       </c>
@@ -1568,8 +1796,11 @@
       <c r="E85" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>78</v>
       </c>
@@ -1582,8 +1813,11 @@
       <c r="E86" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>79</v>
       </c>
@@ -1596,8 +1830,11 @@
       <c r="E87" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>80</v>
       </c>
@@ -1610,8 +1847,11 @@
       <c r="E88" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>81</v>
       </c>
@@ -1624,8 +1864,11 @@
       <c r="E89" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>82</v>
       </c>
@@ -1638,8 +1881,11 @@
       <c r="E90" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>83</v>
       </c>
@@ -1652,8 +1898,11 @@
       <c r="E91" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>84</v>
       </c>
@@ -1666,8 +1915,11 @@
       <c r="E92" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>85</v>
       </c>
@@ -1680,8 +1932,11 @@
       <c r="E93" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>86</v>
       </c>
@@ -1694,8 +1949,11 @@
       <c r="E94" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>87</v>
       </c>
@@ -1708,8 +1966,11 @@
       <c r="E95" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>88</v>
       </c>
@@ -1722,8 +1983,11 @@
       <c r="E96" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>89</v>
       </c>
@@ -1736,8 +2000,11 @@
       <c r="E97" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>90</v>
       </c>
@@ -1750,8 +2017,11 @@
       <c r="E98" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>91</v>
       </c>
@@ -1764,8 +2034,11 @@
       <c r="E99" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>92</v>
       </c>
@@ -1778,8 +2051,11 @@
       <c r="E100" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>93</v>
       </c>
@@ -1792,8 +2068,11 @@
       <c r="E101" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>94</v>
       </c>
@@ -1806,8 +2085,11 @@
       <c r="E102" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>95</v>
       </c>
@@ -1820,8 +2102,11 @@
       <c r="E103" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>96</v>
       </c>
@@ -1834,8 +2119,11 @@
       <c r="E104" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>97</v>
       </c>
@@ -1848,8 +2136,11 @@
       <c r="E105" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>98</v>
       </c>
@@ -1862,8 +2153,11 @@
       <c r="E106" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>99</v>
       </c>
@@ -1876,8 +2170,11 @@
       <c r="E107" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>100</v>
       </c>
@@ -1890,8 +2187,11 @@
       <c r="E108" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>101</v>
       </c>
@@ -1904,8 +2204,11 @@
       <c r="E109" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>102</v>
       </c>
@@ -1918,8 +2221,11 @@
       <c r="E110" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>103</v>
       </c>
@@ -1932,8 +2238,11 @@
       <c r="E111" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>104</v>
       </c>
@@ -1946,8 +2255,11 @@
       <c r="E112" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>105</v>
       </c>
@@ -1960,8 +2272,11 @@
       <c r="E113" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>106</v>
       </c>
@@ -1974,8 +2289,11 @@
       <c r="E114" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>107</v>
       </c>
@@ -1988,8 +2306,11 @@
       <c r="E115" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>108</v>
       </c>
@@ -2002,8 +2323,11 @@
       <c r="E116" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>109</v>
       </c>
@@ -2016,8 +2340,11 @@
       <c r="E117" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>110</v>
       </c>
@@ -2030,8 +2357,11 @@
       <c r="E118" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>111</v>
       </c>
@@ -2044,8 +2374,11 @@
       <c r="E119" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>112</v>
       </c>
@@ -2058,8 +2391,11 @@
       <c r="E120" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>113</v>
       </c>
@@ -2072,8 +2408,11 @@
       <c r="E121" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>114</v>
       </c>
@@ -2086,8 +2425,11 @@
       <c r="E122" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>115</v>
       </c>
@@ -2100,8 +2442,11 @@
       <c r="E123" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>116</v>
       </c>
@@ -2114,8 +2459,11 @@
       <c r="E124" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>117</v>
       </c>
@@ -2128,8 +2476,11 @@
       <c r="E125" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>118</v>
       </c>
@@ -2142,8 +2493,11 @@
       <c r="E126" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>119</v>
       </c>
@@ -2156,8 +2510,11 @@
       <c r="E127" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>120</v>
       </c>
@@ -2170,8 +2527,11 @@
       <c r="E128" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>121</v>
       </c>
@@ -2184,8 +2544,11 @@
       <c r="E129" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>122</v>
       </c>
@@ -2198,8 +2561,11 @@
       <c r="E130" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>123</v>
       </c>
@@ -2212,8 +2578,11 @@
       <c r="E131" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>124</v>
       </c>
@@ -2226,8 +2595,11 @@
       <c r="E132" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>125</v>
       </c>
@@ -2240,8 +2612,11 @@
       <c r="E133" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>126</v>
       </c>
@@ -2254,8 +2629,11 @@
       <c r="E134" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>127</v>
       </c>
@@ -2268,8 +2646,11 @@
       <c r="E135" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>128</v>
       </c>
@@ -2282,8 +2663,11 @@
       <c r="E136" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>129</v>
       </c>
@@ -2296,8 +2680,11 @@
       <c r="E137" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>130</v>
       </c>
@@ -2310,8 +2697,11 @@
       <c r="E138" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>131</v>
       </c>
@@ -2324,8 +2714,11 @@
       <c r="E139" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>132</v>
       </c>
@@ -2338,8 +2731,11 @@
       <c r="E140" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>133</v>
       </c>
@@ -2352,8 +2748,11 @@
       <c r="E141" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>134</v>
       </c>
@@ -2366,8 +2765,11 @@
       <c r="E142" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>135</v>
       </c>
@@ -2380,8 +2782,11 @@
       <c r="E143" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>136</v>
       </c>
@@ -2394,8 +2799,11 @@
       <c r="E144" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>137</v>
       </c>
@@ -2408,8 +2816,11 @@
       <c r="E145" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>138</v>
       </c>
@@ -2422,8 +2833,11 @@
       <c r="E146" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>139</v>
       </c>
@@ -2436,8 +2850,11 @@
       <c r="E147" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>140</v>
       </c>
@@ -2450,8 +2867,11 @@
       <c r="E148" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>141</v>
       </c>
@@ -2464,8 +2884,11 @@
       <c r="E149" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>142</v>
       </c>
@@ -2478,8 +2901,11 @@
       <c r="E150" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>143</v>
       </c>
@@ -2492,8 +2918,11 @@
       <c r="E151" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>144</v>
       </c>
@@ -2506,8 +2935,11 @@
       <c r="E152" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>145</v>
       </c>
@@ -2520,8 +2952,11 @@
       <c r="E153" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>146</v>
       </c>
@@ -2534,8 +2969,11 @@
       <c r="E154" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>147</v>
       </c>
@@ -2548,8 +2986,11 @@
       <c r="E155" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>148</v>
       </c>
@@ -2562,8 +3003,11 @@
       <c r="E156" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>149</v>
       </c>
@@ -2576,8 +3020,11 @@
       <c r="E157" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>150</v>
       </c>
@@ -2590,8 +3037,11 @@
       <c r="E158" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>151</v>
       </c>
@@ -2604,8 +3054,11 @@
       <c r="E159" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>152</v>
       </c>
@@ -2618,8 +3071,11 @@
       <c r="E160" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>153</v>
       </c>
@@ -2632,8 +3088,11 @@
       <c r="E161" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>154</v>
       </c>
@@ -2646,8 +3105,11 @@
       <c r="E162" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>155</v>
       </c>
@@ -2660,8 +3122,11 @@
       <c r="E163" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>156</v>
       </c>
@@ -2674,8 +3139,11 @@
       <c r="E164" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>157</v>
       </c>
@@ -2688,8 +3156,11 @@
       <c r="E165" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>158</v>
       </c>
@@ -2702,8 +3173,11 @@
       <c r="E166" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>159</v>
       </c>
@@ -2716,8 +3190,11 @@
       <c r="E167" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>160</v>
       </c>
@@ -2730,8 +3207,11 @@
       <c r="E168" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>161</v>
       </c>
@@ -2744,8 +3224,11 @@
       <c r="E169" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>162</v>
       </c>
@@ -2758,8 +3241,11 @@
       <c r="E170" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>163</v>
       </c>
@@ -2772,8 +3258,11 @@
       <c r="E171" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>164</v>
       </c>
@@ -2786,8 +3275,11 @@
       <c r="E172" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>165</v>
       </c>
@@ -2800,8 +3292,11 @@
       <c r="E173" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>166</v>
       </c>
@@ -2814,8 +3309,11 @@
       <c r="E174" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>167</v>
       </c>
@@ -2828,8 +3326,11 @@
       <c r="E175" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>168</v>
       </c>
@@ -2842,8 +3343,11 @@
       <c r="E176" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>169</v>
       </c>
@@ -2856,8 +3360,11 @@
       <c r="E177" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>170</v>
       </c>
@@ -2870,8 +3377,11 @@
       <c r="E178" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>171</v>
       </c>
@@ -2884,8 +3394,11 @@
       <c r="E179" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>172</v>
       </c>
@@ -2898,8 +3411,11 @@
       <c r="E180" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>173</v>
       </c>
@@ -2912,8 +3428,11 @@
       <c r="E181" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>174</v>
       </c>
@@ -2926,8 +3445,11 @@
       <c r="E182" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>175</v>
       </c>
@@ -2940,8 +3462,11 @@
       <c r="E183" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>176</v>
       </c>
@@ -2954,8 +3479,11 @@
       <c r="E184" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>177</v>
       </c>
@@ -2968,8 +3496,11 @@
       <c r="E185" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>178</v>
       </c>
@@ -2982,8 +3513,11 @@
       <c r="E186" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>179</v>
       </c>
@@ -2996,8 +3530,11 @@
       <c r="E187" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>180</v>
       </c>
@@ -3010,8 +3547,11 @@
       <c r="E188" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F188">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>181</v>
       </c>
@@ -3024,8 +3564,11 @@
       <c r="E189" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F189">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>182</v>
       </c>
@@ -3038,8 +3581,11 @@
       <c r="E190" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F190">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>183</v>
       </c>
@@ -3052,8 +3598,11 @@
       <c r="E191" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F191">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>184</v>
       </c>
@@ -3066,8 +3615,11 @@
       <c r="E192" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F192">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>185</v>
       </c>
@@ -3080,8 +3632,11 @@
       <c r="E193" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194">
         <v>186</v>
       </c>
@@ -3094,8 +3649,11 @@
       <c r="E194" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F194">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195">
         <v>187</v>
       </c>
@@ -3108,8 +3666,11 @@
       <c r="E195" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F195">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>188</v>
       </c>
@@ -3122,8 +3683,11 @@
       <c r="E196" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F196">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>189</v>
       </c>
@@ -3136,8 +3700,11 @@
       <c r="E197" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F197">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>190</v>
       </c>
@@ -3150,8 +3717,11 @@
       <c r="E198" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>191</v>
       </c>
@@ -3164,8 +3734,11 @@
       <c r="E199" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>192</v>
       </c>
@@ -3178,8 +3751,11 @@
       <c r="E200" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F200">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>193</v>
       </c>
@@ -3192,8 +3768,11 @@
       <c r="E201" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202">
         <v>194</v>
       </c>
@@ -3206,8 +3785,11 @@
       <c r="E202" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F202">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203">
         <v>195</v>
       </c>
@@ -3220,8 +3802,11 @@
       <c r="E203" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204">
         <v>196</v>
       </c>
@@ -3234,8 +3819,11 @@
       <c r="E204" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F204">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205">
         <v>197</v>
       </c>
@@ -3248,8 +3836,11 @@
       <c r="E205" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F205">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206">
         <v>198</v>
       </c>
@@ -3262,8 +3853,11 @@
       <c r="E206" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F206">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>199</v>
       </c>
@@ -3276,8 +3870,11 @@
       <c r="E207" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F207">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>200</v>
       </c>
@@ -3290,8 +3887,11 @@
       <c r="E208" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F208">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>201</v>
       </c>
@@ -3304,8 +3904,11 @@
       <c r="E209" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210">
         <v>202</v>
       </c>
@@ -3318,8 +3921,11 @@
       <c r="E210" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F210">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211">
         <v>203</v>
       </c>
@@ -3332,8 +3938,11 @@
       <c r="E211" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F211">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212">
         <v>204</v>
       </c>
@@ -3346,8 +3955,11 @@
       <c r="E212" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F212">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213">
         <v>205</v>
       </c>
@@ -3360,8 +3972,11 @@
       <c r="E213" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F213">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214">
         <v>206</v>
       </c>
@@ -3374,8 +3989,11 @@
       <c r="E214" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F214">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>207</v>
       </c>
@@ -3388,8 +4006,11 @@
       <c r="E215" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F215">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>208</v>
       </c>
@@ -3402,8 +4023,11 @@
       <c r="E216" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>209</v>
       </c>
@@ -3416,8 +4040,11 @@
       <c r="E217" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218">
         <v>210</v>
       </c>
@@ -3430,8 +4057,11 @@
       <c r="E218" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F218">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>211</v>
       </c>
@@ -3444,8 +4074,11 @@
       <c r="E219" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F219">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>212</v>
       </c>
@@ -3458,8 +4091,11 @@
       <c r="E220" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221">
         <v>213</v>
       </c>
@@ -3472,8 +4108,11 @@
       <c r="E221" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F221">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B222">
         <v>214</v>
       </c>
@@ -3486,8 +4125,11 @@
       <c r="E222" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F222">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>215</v>
       </c>
@@ -3500,8 +4142,11 @@
       <c r="E223" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F223">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>216</v>
       </c>
@@ -3514,8 +4159,11 @@
       <c r="E224" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F224">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>217</v>
       </c>
@@ -3528,8 +4176,11 @@
       <c r="E225" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F225">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>218</v>
       </c>
@@ -3542,8 +4193,11 @@
       <c r="E226" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>219</v>
       </c>
@@ -3556,8 +4210,11 @@
       <c r="E227" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>220</v>
       </c>
@@ -3570,8 +4227,11 @@
       <c r="E228" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F228">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>221</v>
       </c>
@@ -3584,8 +4244,11 @@
       <c r="E229" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F229">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>222</v>
       </c>
@@ -3598,8 +4261,11 @@
       <c r="E230" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F230">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B231">
         <v>223</v>
       </c>
@@ -3612,8 +4278,11 @@
       <c r="E231" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F231">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>224</v>
       </c>
@@ -3626,8 +4295,11 @@
       <c r="E232" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F232">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>225</v>
       </c>
@@ -3640,8 +4312,11 @@
       <c r="E233" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F233">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>226</v>
       </c>
@@ -3654,8 +4329,11 @@
       <c r="E234" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F234">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>227</v>
       </c>
@@ -3668,8 +4346,11 @@
       <c r="E235" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F235">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>228</v>
       </c>
@@ -3682,8 +4363,11 @@
       <c r="E236" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F236">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>229</v>
       </c>
@@ -3696,8 +4380,11 @@
       <c r="E237" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F237">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>230</v>
       </c>
@@ -3710,8 +4397,11 @@
       <c r="E238" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>231</v>
       </c>
@@ -3724,8 +4414,11 @@
       <c r="E239" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F239">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>232</v>
       </c>
@@ -3738,8 +4431,11 @@
       <c r="E240" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F240">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>233</v>
       </c>
@@ -3752,8 +4448,11 @@
       <c r="E241" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F241">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>234</v>
       </c>
@@ -3766,8 +4465,11 @@
       <c r="E242" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F242">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B243">
         <v>235</v>
       </c>
@@ -3780,8 +4482,11 @@
       <c r="E243" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F243">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B244">
         <v>236</v>
       </c>
@@ -3794,8 +4499,11 @@
       <c r="E244" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F244">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>237</v>
       </c>
@@ -3808,8 +4516,11 @@
       <c r="E245" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F245">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>238</v>
       </c>
@@ -3822,8 +4533,11 @@
       <c r="E246" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F246">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>239</v>
       </c>
@@ -3836,8 +4550,11 @@
       <c r="E247" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F247">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>240</v>
       </c>
@@ -3850,8 +4567,11 @@
       <c r="E248" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>241</v>
       </c>
@@ -3864,8 +4584,11 @@
       <c r="E249" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F249">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B250">
         <v>242</v>
       </c>
@@ -3878,8 +4601,11 @@
       <c r="E250" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F250">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B251">
         <v>243</v>
       </c>
@@ -3892,8 +4618,11 @@
       <c r="E251" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B252">
         <v>244</v>
       </c>
@@ -3906,8 +4635,11 @@
       <c r="E252" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F252">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B253">
         <v>245</v>
       </c>
@@ -3920,8 +4652,11 @@
       <c r="E253" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B254">
         <v>246</v>
       </c>
@@ -3934,8 +4669,11 @@
       <c r="E254" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F254">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B255">
         <v>247</v>
       </c>
@@ -3948,8 +4686,11 @@
       <c r="E255" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F255">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B256">
         <v>248</v>
       </c>
@@ -3962,8 +4703,11 @@
       <c r="E256" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B257">
         <v>249</v>
       </c>
@@ -3976,8 +4720,11 @@
       <c r="E257" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F257">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B258">
         <v>250</v>
       </c>
@@ -3990,8 +4737,11 @@
       <c r="E258" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B259">
         <v>251</v>
       </c>
@@ -4004,8 +4754,11 @@
       <c r="E259" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F259">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B260">
         <v>252</v>
       </c>
@@ -4018,8 +4771,11 @@
       <c r="E260" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B261">
         <v>253</v>
       </c>
@@ -4032,8 +4788,11 @@
       <c r="E261" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F261">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B262">
         <v>254</v>
       </c>
@@ -4046,8 +4805,11 @@
       <c r="E262" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F262">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B263">
         <v>255</v>
       </c>
@@ -4060,8 +4822,11 @@
       <c r="E263" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F263">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B264">
         <v>256</v>
       </c>
@@ -4074,8 +4839,11 @@
       <c r="E264" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F264">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B265">
         <v>257</v>
       </c>
@@ -4088,8 +4856,11 @@
       <c r="E265" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F265">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B266">
         <v>258</v>
       </c>
@@ -4102,8 +4873,11 @@
       <c r="E266" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F266">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B267">
         <v>259</v>
       </c>
@@ -4116,8 +4890,11 @@
       <c r="E267" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B268">
         <v>260</v>
       </c>
@@ -4130,8 +4907,11 @@
       <c r="E268" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F268">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B269">
         <v>261</v>
       </c>
@@ -4144,8 +4924,11 @@
       <c r="E269" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B270">
         <v>262</v>
       </c>
@@ -4158,8 +4941,11 @@
       <c r="E270" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F270">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B271">
         <v>263</v>
       </c>
@@ -4172,8 +4958,11 @@
       <c r="E271" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F271">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B272">
         <v>264</v>
       </c>
@@ -4186,8 +4975,11 @@
       <c r="E272" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F272">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B273">
         <v>265</v>
       </c>
@@ -4200,8 +4992,11 @@
       <c r="E273" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F273">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B274">
         <v>266</v>
       </c>
@@ -4214,8 +5009,11 @@
       <c r="E274" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F274">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B275">
         <v>267</v>
       </c>
@@ -4228,8 +5026,11 @@
       <c r="E275" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F275">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B276">
         <v>268</v>
       </c>
@@ -4242,8 +5043,11 @@
       <c r="E276" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F276">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B277">
         <v>269</v>
       </c>
@@ -4256,8 +5060,11 @@
       <c r="E277" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F277">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B278">
         <v>270</v>
       </c>
@@ -4270,8 +5077,11 @@
       <c r="E278" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F278">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B279">
         <v>271</v>
       </c>
@@ -4284,8 +5094,11 @@
       <c r="E279" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B280">
         <v>272</v>
       </c>
@@ -4298,8 +5111,11 @@
       <c r="E280" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F280">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B281">
         <v>273</v>
       </c>
@@ -4312,8 +5128,11 @@
       <c r="E281" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B282">
         <v>274</v>
       </c>
@@ -4326,8 +5145,11 @@
       <c r="E282" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F282">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B283">
         <v>275</v>
       </c>
@@ -4340,8 +5162,11 @@
       <c r="E283" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F283">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B284">
         <v>276</v>
       </c>
@@ -4354,8 +5179,11 @@
       <c r="E284" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F284">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B285">
         <v>277</v>
       </c>
@@ -4368,8 +5196,11 @@
       <c r="E285" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F285">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B286">
         <v>278</v>
       </c>
@@ -4382,8 +5213,11 @@
       <c r="E286" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F286">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B287">
         <v>279</v>
       </c>
@@ -4396,8 +5230,11 @@
       <c r="E287" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F287">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B288">
         <v>280</v>
       </c>
@@ -4410,8 +5247,11 @@
       <c r="E288" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F288">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B289">
         <v>281</v>
       </c>
@@ -4424,8 +5264,11 @@
       <c r="E289" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F289">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B290">
         <v>282</v>
       </c>
@@ -4438,8 +5281,11 @@
       <c r="E290" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F290">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B291">
         <v>283</v>
       </c>
@@ -4452,8 +5298,11 @@
       <c r="E291" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F291">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B292">
         <v>284</v>
       </c>
@@ -4466,8 +5315,11 @@
       <c r="E292" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>285</v>
       </c>
@@ -4480,8 +5332,11 @@
       <c r="E293" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F293">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B294">
         <v>286</v>
       </c>
@@ -4494,8 +5349,11 @@
       <c r="E294" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B295">
         <v>287</v>
       </c>
@@ -4508,8 +5366,11 @@
       <c r="E295" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F295">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B296">
         <v>288</v>
       </c>
@@ -4522,8 +5383,11 @@
       <c r="E296" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F296">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B297">
         <v>289</v>
       </c>
@@ -4536,8 +5400,11 @@
       <c r="E297" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B298">
         <v>290</v>
       </c>
@@ -4550,8 +5417,11 @@
       <c r="E298" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F298">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B299">
         <v>291</v>
       </c>
@@ -4564,8 +5434,11 @@
       <c r="E299" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F299">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B300">
         <v>292</v>
       </c>
@@ -4578,8 +5451,11 @@
       <c r="E300" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F300">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B301">
         <v>293</v>
       </c>
@@ -4592,8 +5468,11 @@
       <c r="E301" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F301">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B302">
         <v>294</v>
       </c>
@@ -4606,8 +5485,11 @@
       <c r="E302" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F302">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B303">
         <v>295</v>
       </c>
@@ -4620,8 +5502,11 @@
       <c r="E303" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F303">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B304">
         <v>296</v>
       </c>
@@ -4634,8 +5519,11 @@
       <c r="E304" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F304">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B305">
         <v>297</v>
       </c>
@@ -4648,8 +5536,11 @@
       <c r="E305" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F305">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B306">
         <v>298</v>
       </c>
@@ -4662,8 +5553,11 @@
       <c r="E306" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F306">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B307">
         <v>299</v>
       </c>
@@ -4676,8 +5570,11 @@
       <c r="E307" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F307">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B308">
         <v>300</v>
       </c>
@@ -4690,8 +5587,11 @@
       <c r="E308" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F308">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B309">
         <v>301</v>
       </c>
@@ -4704,8 +5604,11 @@
       <c r="E309" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F309">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B310">
         <v>302</v>
       </c>
@@ -4718,8 +5621,11 @@
       <c r="E310" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B311">
         <v>303</v>
       </c>
@@ -4732,8 +5638,11 @@
       <c r="E311" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F311">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B312">
         <v>304</v>
       </c>
@@ -4746,8 +5655,11 @@
       <c r="E312" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F312">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B313">
         <v>305</v>
       </c>
@@ -4760,8 +5672,11 @@
       <c r="E313" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F313">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B314">
         <v>306</v>
       </c>
@@ -4774,8 +5689,11 @@
       <c r="E314" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F314">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B315">
         <v>307</v>
       </c>
@@ -4788,8 +5706,11 @@
       <c r="E315" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F315">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B316">
         <v>308</v>
       </c>
@@ -4802,8 +5723,11 @@
       <c r="E316" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F316">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B317">
         <v>309</v>
       </c>
@@ -4816,8 +5740,11 @@
       <c r="E317" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F317">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B318">
         <v>310</v>
       </c>
@@ -4830,8 +5757,11 @@
       <c r="E318" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F318">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B319">
         <v>311</v>
       </c>
@@ -4844,8 +5774,11 @@
       <c r="E319" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F319">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B320">
         <v>312</v>
       </c>
@@ -4858,8 +5791,11 @@
       <c r="E320" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F320">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B321">
         <v>313</v>
       </c>
@@ -4872,8 +5808,11 @@
       <c r="E321" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F321">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B322">
         <v>314</v>
       </c>
@@ -4886,8 +5825,11 @@
       <c r="E322" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F322">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B323">
         <v>315</v>
       </c>
@@ -4900,8 +5842,11 @@
       <c r="E323" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F323">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B324">
         <v>316</v>
       </c>
@@ -4914,8 +5859,11 @@
       <c r="E324" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F324">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B325">
         <v>317</v>
       </c>
@@ -4928,8 +5876,11 @@
       <c r="E325" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B326">
         <v>318</v>
       </c>
@@ -4942,8 +5893,11 @@
       <c r="E326" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F326">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="327" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B327">
         <v>319</v>
       </c>
@@ -4956,8 +5910,11 @@
       <c r="E327" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F327">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B328">
         <v>320</v>
       </c>
@@ -4970,8 +5927,11 @@
       <c r="E328" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F328">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B329">
         <v>321</v>
       </c>
@@ -4984,8 +5944,11 @@
       <c r="E329" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F329">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B330">
         <v>322</v>
       </c>
@@ -4998,8 +5961,11 @@
       <c r="E330" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B331">
         <v>323</v>
       </c>
@@ -5012,8 +5978,11 @@
       <c r="E331" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F331">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B332">
         <v>324</v>
       </c>
@@ -5026,8 +5995,11 @@
       <c r="E332" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B333">
         <v>325</v>
       </c>
@@ -5040,8 +6012,11 @@
       <c r="E333" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F333">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B334">
         <v>326</v>
       </c>
@@ -5054,8 +6029,11 @@
       <c r="E334" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F334">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B335">
         <v>327</v>
       </c>
@@ -5068,8 +6046,11 @@
       <c r="E335" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F335">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B336">
         <v>328</v>
       </c>
@@ -5082,8 +6063,11 @@
       <c r="E336" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B337">
         <v>329</v>
       </c>
@@ -5096,8 +6080,11 @@
       <c r="E337" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F337">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="338" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B338">
         <v>330</v>
       </c>
@@ -5110,8 +6097,11 @@
       <c r="E338" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F338">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B339">
         <v>331</v>
       </c>
@@ -5124,8 +6114,11 @@
       <c r="E339" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F339">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B340">
         <v>332</v>
       </c>
@@ -5138,8 +6131,11 @@
       <c r="E340" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F340">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="341" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B341">
         <v>333</v>
       </c>
@@ -5152,8 +6148,11 @@
       <c r="E341" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F341">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B342">
         <v>334</v>
       </c>
@@ -5166,8 +6165,11 @@
       <c r="E342" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F342">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="343" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B343">
         <v>335</v>
       </c>
@@ -5180,8 +6182,11 @@
       <c r="E343" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F343">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="344" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B344">
         <v>336</v>
       </c>
@@ -5194,8 +6199,11 @@
       <c r="E344" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F344">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B345">
         <v>337</v>
       </c>
@@ -5208,8 +6216,11 @@
       <c r="E345" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F345">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B346">
         <v>338</v>
       </c>
@@ -5222,8 +6233,11 @@
       <c r="E346" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B347">
         <v>339</v>
       </c>
@@ -5236,8 +6250,11 @@
       <c r="E347" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F347">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B348">
         <v>340</v>
       </c>
@@ -5250,8 +6267,11 @@
       <c r="E348" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F348">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B349">
         <v>341</v>
       </c>
@@ -5264,8 +6284,11 @@
       <c r="E349" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F349">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B350">
         <v>342</v>
       </c>
@@ -5278,8 +6301,11 @@
       <c r="E350" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F350">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B351">
         <v>343</v>
       </c>
@@ -5292,8 +6318,11 @@
       <c r="E351" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F351">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B352">
         <v>344</v>
       </c>
@@ -5306,8 +6335,11 @@
       <c r="E352" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F352">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B353">
         <v>345</v>
       </c>
@@ -5320,8 +6352,11 @@
       <c r="E353" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F353">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B354">
         <v>346</v>
       </c>
@@ -5334,8 +6369,11 @@
       <c r="E354" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F354">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B355">
         <v>347</v>
       </c>
@@ -5348,8 +6386,11 @@
       <c r="E355" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F355">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B356">
         <v>348</v>
       </c>
@@ -5362,8 +6403,11 @@
       <c r="E356" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B357">
         <v>349</v>
       </c>
@@ -5376,8 +6420,11 @@
       <c r="E357" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F357">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B358">
         <v>350</v>
       </c>
@@ -5390,8 +6437,11 @@
       <c r="E358" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F358">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B359">
         <v>351</v>
       </c>
@@ -5404,8 +6454,11 @@
       <c r="E359" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B360">
         <v>352</v>
       </c>
@@ -5418,8 +6471,11 @@
       <c r="E360" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F360">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="361" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B361">
         <v>353</v>
       </c>
@@ -5432,8 +6488,11 @@
       <c r="E361" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F361">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="362" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B362">
         <v>354</v>
       </c>
@@ -5446,8 +6505,11 @@
       <c r="E362" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F362">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B363">
         <v>355</v>
       </c>
@@ -5460,8 +6522,11 @@
       <c r="E363" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F363">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B364">
         <v>356</v>
       </c>
@@ -5474,8 +6539,11 @@
       <c r="E364" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F364">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B365">
         <v>357</v>
       </c>
@@ -5488,8 +6556,11 @@
       <c r="E365" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F365">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B366">
         <v>358</v>
       </c>
@@ -5502,8 +6573,11 @@
       <c r="E366" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F366">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B367">
         <v>359</v>
       </c>
@@ -5516,8 +6590,11 @@
       <c r="E367" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F367">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B368">
         <v>360</v>
       </c>
@@ -5530,8 +6607,11 @@
       <c r="E368" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F368">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B369">
         <v>361</v>
       </c>
@@ -5544,8 +6624,11 @@
       <c r="E369" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F369">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B370">
         <v>362</v>
       </c>
@@ -5558,8 +6641,11 @@
       <c r="E370" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="371" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F370">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B371">
         <v>363</v>
       </c>
@@ -5572,8 +6658,11 @@
       <c r="E371" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="372" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F371">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B372">
         <v>364</v>
       </c>
@@ -5586,8 +6675,11 @@
       <c r="E372" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="373" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F372">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B373">
         <v>365</v>
       </c>
@@ -5600,8 +6692,11 @@
       <c r="E373" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="374" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F373">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B374">
         <v>366</v>
       </c>
@@ -5614,8 +6709,11 @@
       <c r="E374" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="375" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F374">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B375">
         <v>367</v>
       </c>
@@ -5628,8 +6726,11 @@
       <c r="E375" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="376" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F375">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="376" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B376">
         <v>368</v>
       </c>
@@ -5642,8 +6743,11 @@
       <c r="E376" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="377" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B377">
         <v>369</v>
       </c>
@@ -5656,8 +6760,11 @@
       <c r="E377" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="378" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F377">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="378" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B378">
         <v>370</v>
       </c>
@@ -5670,8 +6777,11 @@
       <c r="E378" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="379" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F378">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B379">
         <v>371</v>
       </c>
@@ -5684,8 +6794,11 @@
       <c r="E379" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="380" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F379">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B380">
         <v>372</v>
       </c>
@@ -5698,8 +6811,11 @@
       <c r="E380" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="381" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F380">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="381" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B381">
         <v>373</v>
       </c>
@@ -5712,8 +6828,11 @@
       <c r="E381" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="382" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F381">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="382" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B382">
         <v>374</v>
       </c>
@@ -5726,8 +6845,11 @@
       <c r="E382" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="383" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F382">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B383">
         <v>375</v>
       </c>
@@ -5740,8 +6862,11 @@
       <c r="E383" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="384" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F383">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B384">
         <v>376</v>
       </c>
@@ -5754,8 +6879,11 @@
       <c r="E384" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F384">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="385" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B385">
         <v>377</v>
       </c>
@@ -5768,8 +6896,11 @@
       <c r="E385" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F385">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B386">
         <v>378</v>
       </c>
@@ -5782,8 +6913,11 @@
       <c r="E386" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F386">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="387" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B387">
         <v>379</v>
       </c>
@@ -5796,8 +6930,11 @@
       <c r="E387" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F387">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B388">
         <v>380</v>
       </c>
@@ -5810,8 +6947,11 @@
       <c r="E388" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F388">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="389" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B389">
         <v>381</v>
       </c>
@@ -5824,8 +6964,11 @@
       <c r="E389" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F389">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="390" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B390">
         <v>382</v>
       </c>
@@ -5838,8 +6981,11 @@
       <c r="E390" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F390">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="391" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B391">
         <v>383</v>
       </c>
@@ -5852,8 +6998,11 @@
       <c r="E391" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="392" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F391">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B392">
         <v>384</v>
       </c>
@@ -5866,8 +7015,11 @@
       <c r="E392" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F392">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="393" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B393">
         <v>385</v>
       </c>
@@ -5880,8 +7032,11 @@
       <c r="E393" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F393">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B394">
         <v>386</v>
       </c>
@@ -5894,8 +7049,11 @@
       <c r="E394" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F394">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="395" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B395">
         <v>387</v>
       </c>
@@ -5908,8 +7066,11 @@
       <c r="E395" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F395">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B396">
         <v>388</v>
       </c>
@@ -5922,8 +7083,11 @@
       <c r="E396" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F396">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="397" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B397">
         <v>389</v>
       </c>
@@ -5936,8 +7100,11 @@
       <c r="E397" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="398" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F397">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B398">
         <v>390</v>
       </c>
@@ -5950,8 +7117,11 @@
       <c r="E398" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="399" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F398">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="399" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B399">
         <v>391</v>
       </c>
@@ -5964,8 +7134,11 @@
       <c r="E399" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B400">
         <v>392</v>
       </c>
@@ -5978,8 +7151,11 @@
       <c r="E400" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="401" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F400">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="401" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B401">
         <v>393</v>
       </c>
@@ -5992,8 +7168,11 @@
       <c r="E401" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="402" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F401">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B402">
         <v>394</v>
       </c>
@@ -6006,8 +7185,11 @@
       <c r="E402" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F402">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B403">
         <v>395</v>
       </c>
@@ -6020,8 +7202,11 @@
       <c r="E403" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="404" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F403">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="404" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B404">
         <v>396</v>
       </c>
@@ -6034,8 +7219,11 @@
       <c r="E404" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="405" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F404">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="405" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B405">
         <v>397</v>
       </c>
@@ -6048,8 +7236,11 @@
       <c r="E405" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="406" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F405">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="406" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B406">
         <v>398</v>
       </c>
@@ -6062,8 +7253,11 @@
       <c r="E406" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F406">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B407">
         <v>399</v>
       </c>
@@ -6076,8 +7270,11 @@
       <c r="E407" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="408" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F407">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="408" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B408">
         <v>400</v>
       </c>
@@ -6090,8 +7287,11 @@
       <c r="E408" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F408">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="409" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B409">
         <v>401</v>
       </c>
@@ -6104,8 +7304,11 @@
       <c r="E409" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="410" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F409">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="410" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B410">
         <v>402</v>
       </c>
@@ -6118,8 +7321,11 @@
       <c r="E410" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="411" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F410">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B411">
         <v>403</v>
       </c>
@@ -6132,8 +7338,11 @@
       <c r="E411" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="412" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F411">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="412" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B412">
         <v>404</v>
       </c>
@@ -6146,8 +7355,11 @@
       <c r="E412" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="413" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F412">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="413" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B413">
         <v>405</v>
       </c>
@@ -6160,8 +7372,11 @@
       <c r="E413" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="414" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F413">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="414" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B414">
         <v>406</v>
       </c>
@@ -6174,8 +7389,11 @@
       <c r="E414" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="415" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F414">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="415" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B415">
         <v>407</v>
       </c>
@@ -6188,8 +7406,11 @@
       <c r="E415" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="416" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F415">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="416" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B416">
         <v>408</v>
       </c>
@@ -6202,8 +7423,11 @@
       <c r="E416" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="417" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F416">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B417">
         <v>409</v>
       </c>
@@ -6216,8 +7440,11 @@
       <c r="E417" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="418" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F417">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B418">
         <v>410</v>
       </c>
@@ -6230,8 +7457,11 @@
       <c r="E418" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="419" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B419">
         <v>411</v>
       </c>
@@ -6244,8 +7474,11 @@
       <c r="E419" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="420" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F419">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="420" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B420">
         <v>412</v>
       </c>
@@ -6258,8 +7491,11 @@
       <c r="E420" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="421" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F420">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B421">
         <v>413</v>
       </c>
@@ -6272,8 +7508,11 @@
       <c r="E421" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="422" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F421">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B422">
         <v>414</v>
       </c>
@@ -6286,8 +7525,11 @@
       <c r="E422" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="423" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F422">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="423" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B423">
         <v>415</v>
       </c>
@@ -6300,8 +7542,11 @@
       <c r="E423" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="424" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F423">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B424">
         <v>416</v>
       </c>
@@ -6314,8 +7559,11 @@
       <c r="E424" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="425" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F424">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="425" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B425">
         <v>417</v>
       </c>
@@ -6328,8 +7576,11 @@
       <c r="E425" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="426" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F425">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="426" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B426">
         <v>418</v>
       </c>
@@ -6342,8 +7593,11 @@
       <c r="E426" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="427" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F426">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B427">
         <v>419</v>
       </c>
@@ -6356,8 +7610,11 @@
       <c r="E427" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="428" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F427">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="428" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B428">
         <v>420</v>
       </c>
@@ -6370,8 +7627,11 @@
       <c r="E428" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="429" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F428">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B429">
         <v>421</v>
       </c>
@@ -6384,8 +7644,11 @@
       <c r="E429" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="430" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B430">
         <v>422</v>
       </c>
@@ -6398,8 +7661,11 @@
       <c r="E430" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="431" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F430">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B431">
         <v>423</v>
       </c>
@@ -6412,8 +7678,11 @@
       <c r="E431" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="432" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F431">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B432">
         <v>424</v>
       </c>
@@ -6426,8 +7695,11 @@
       <c r="E432" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="433" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F432">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B433">
         <v>425</v>
       </c>
@@ -6440,8 +7712,11 @@
       <c r="E433" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="434" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F433">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B434">
         <v>426</v>
       </c>
@@ -6454,8 +7729,11 @@
       <c r="E434" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="435" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F434">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="435" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B435">
         <v>427</v>
       </c>
@@ -6468,8 +7746,11 @@
       <c r="E435" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="436" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F435">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="436" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B436">
         <v>428</v>
       </c>
@@ -6482,8 +7763,11 @@
       <c r="E436" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="437" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F436">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="437" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B437">
         <v>429</v>
       </c>
@@ -6496,8 +7780,11 @@
       <c r="E437" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="438" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F437">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="438" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B438">
         <v>430</v>
       </c>
@@ -6510,8 +7797,11 @@
       <c r="E438" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="439" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F438">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="439" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B439">
         <v>431</v>
       </c>
@@ -6524,8 +7814,11 @@
       <c r="E439" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="440" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F439">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="440" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B440">
         <v>432</v>
       </c>
@@ -6538,8 +7831,11 @@
       <c r="E440" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="441" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F440">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="441" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B441">
         <v>433</v>
       </c>
@@ -6552,8 +7848,11 @@
       <c r="E441" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="442" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B442">
         <v>434</v>
       </c>
@@ -6566,8 +7865,11 @@
       <c r="E442" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="443" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F442">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="443" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B443">
         <v>435</v>
       </c>
@@ -6580,8 +7882,11 @@
       <c r="E443" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="444" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F443">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="444" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B444">
         <v>436</v>
       </c>
@@ -6594,8 +7899,11 @@
       <c r="E444" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="445" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F444">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B445">
         <v>437</v>
       </c>
@@ -6608,8 +7916,11 @@
       <c r="E445" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="446" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F445">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="446" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B446">
         <v>438</v>
       </c>
@@ -6622,8 +7933,11 @@
       <c r="E446" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="447" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F446">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="447" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B447">
         <v>439</v>
       </c>
@@ -6636,8 +7950,11 @@
       <c r="E447" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="448" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F447">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="448" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B448">
         <v>440</v>
       </c>
@@ -6650,8 +7967,11 @@
       <c r="E448" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="449" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F448">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="449" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B449">
         <v>441</v>
       </c>
@@ -6664,8 +7984,11 @@
       <c r="E449" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="450" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F449">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="450" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B450">
         <v>442</v>
       </c>
@@ -6678,8 +8001,11 @@
       <c r="E450" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="451" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F450">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="451" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B451">
         <v>443</v>
       </c>
@@ -6692,8 +8018,11 @@
       <c r="E451" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="452" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F451">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B452">
         <v>444</v>
       </c>
@@ -6706,8 +8035,11 @@
       <c r="E452" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="453" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F452">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="453" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B453">
         <v>445</v>
       </c>
@@ -6720,8 +8052,11 @@
       <c r="E453" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="454" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F453">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="454" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B454">
         <v>446</v>
       </c>
@@ -6734,8 +8069,11 @@
       <c r="E454" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="455" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F454">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B455">
         <v>447</v>
       </c>
@@ -6748,8 +8086,11 @@
       <c r="E455" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="456" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F455">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="456" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B456">
         <v>448</v>
       </c>
@@ -6762,8 +8103,11 @@
       <c r="E456" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="457" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F456">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="457" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B457">
         <v>449</v>
       </c>
@@ -6776,8 +8120,11 @@
       <c r="E457" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="458" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B458">
         <v>450</v>
       </c>
@@ -6790,8 +8137,11 @@
       <c r="E458" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="459" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F458">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="459" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B459">
         <v>451</v>
       </c>
@@ -6804,8 +8154,11 @@
       <c r="E459" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="460" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F459">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="460" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B460">
         <v>452</v>
       </c>
@@ -6818,8 +8171,11 @@
       <c r="E460" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="461" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F460">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="461" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B461">
         <v>453</v>
       </c>
@@ -6832,8 +8188,11 @@
       <c r="E461" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="462" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F461">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B462">
         <v>454</v>
       </c>
@@ -6846,8 +8205,11 @@
       <c r="E462" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="463" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F462">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B463">
         <v>455</v>
       </c>
@@ -6860,8 +8222,11 @@
       <c r="E463" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="464" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F463">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B464">
         <v>456</v>
       </c>
@@ -6874,8 +8239,11 @@
       <c r="E464" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="465" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F464">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="465" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B465">
         <v>457</v>
       </c>
@@ -6888,8 +8256,11 @@
       <c r="E465" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="466" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F465">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B466">
         <v>458</v>
       </c>
@@ -6902,8 +8273,11 @@
       <c r="E466" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="467" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F466">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="467" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B467">
         <v>459</v>
       </c>
@@ -6916,8 +8290,11 @@
       <c r="E467" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="468" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F467">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="468" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B468">
         <v>460</v>
       </c>
@@ -6930,8 +8307,11 @@
       <c r="E468" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="469" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F468">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="469" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B469">
         <v>461</v>
       </c>
@@ -6944,8 +8324,11 @@
       <c r="E469" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="470" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F469">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B470">
         <v>462</v>
       </c>
@@ -6958,8 +8341,11 @@
       <c r="E470" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="471" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F470">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="471" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B471">
         <v>463</v>
       </c>
@@ -6972,8 +8358,11 @@
       <c r="E471" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="472" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F471">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="472" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B472">
         <v>464</v>
       </c>
@@ -6986,8 +8375,11 @@
       <c r="E472" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="473" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F472">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B473">
         <v>465</v>
       </c>
@@ -7000,8 +8392,11 @@
       <c r="E473" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="474" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F473">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B474">
         <v>466</v>
       </c>
@@ -7014,8 +8409,11 @@
       <c r="E474" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="475" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F474">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="475" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B475">
         <v>467</v>
       </c>
@@ -7028,8 +8426,11 @@
       <c r="E475" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="476" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F475">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="476" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B476">
         <v>468</v>
       </c>
@@ -7042,8 +8443,11 @@
       <c r="E476" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="477" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F476">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="477" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B477">
         <v>469</v>
       </c>
@@ -7056,8 +8460,11 @@
       <c r="E477" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="478" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F477">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="478" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B478">
         <v>470</v>
       </c>
@@ -7070,8 +8477,11 @@
       <c r="E478" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="479" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F478">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B479">
         <v>471</v>
       </c>
@@ -7084,8 +8494,11 @@
       <c r="E479" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="480" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F479">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="480" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B480">
         <v>472</v>
       </c>
@@ -7098,8 +8511,11 @@
       <c r="E480" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="481" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F480">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B481">
         <v>473</v>
       </c>
@@ -7112,8 +8528,11 @@
       <c r="E481" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="482" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F481">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="482" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B482">
         <v>474</v>
       </c>
@@ -7126,8 +8545,11 @@
       <c r="E482" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="483" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F482">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="483" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B483">
         <v>475</v>
       </c>
@@ -7140,8 +8562,11 @@
       <c r="E483" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="484" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F483">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="484" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B484">
         <v>476</v>
       </c>
@@ -7154,8 +8579,11 @@
       <c r="E484" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="485" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B485">
         <v>477</v>
       </c>
@@ -7168,8 +8596,11 @@
       <c r="E485" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="486" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F485">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="486" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B486">
         <v>478</v>
       </c>
@@ -7182,8 +8613,11 @@
       <c r="E486" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="487" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F486">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="487" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B487">
         <v>479</v>
       </c>
@@ -7196,8 +8630,11 @@
       <c r="E487" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="488" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F487">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="488" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B488">
         <v>480</v>
       </c>
@@ -7210,8 +8647,11 @@
       <c r="E488" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="489" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F488">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B489">
         <v>481</v>
       </c>
@@ -7224,8 +8664,11 @@
       <c r="E489" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="490" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F489">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="490" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B490">
         <v>482</v>
       </c>
@@ -7238,8 +8681,11 @@
       <c r="E490" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="491" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F490">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="491" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B491">
         <v>483</v>
       </c>
@@ -7252,8 +8698,11 @@
       <c r="E491" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="492" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F491">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="492" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B492">
         <v>484</v>
       </c>
@@ -7266,8 +8715,11 @@
       <c r="E492" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="493" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F492">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="493" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B493">
         <v>485</v>
       </c>
@@ -7280,8 +8732,11 @@
       <c r="E493" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="494" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F493">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="494" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B494">
         <v>486</v>
       </c>
@@ -7294,8 +8749,11 @@
       <c r="E494" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="495" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B495">
         <v>487</v>
       </c>
@@ -7308,8 +8766,11 @@
       <c r="E495" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="496" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F495">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="496" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B496">
         <v>488</v>
       </c>
@@ -7322,8 +8783,11 @@
       <c r="E496" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="497" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F496">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="497" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B497">
         <v>489</v>
       </c>
@@ -7336,8 +8800,11 @@
       <c r="E497" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="498" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F497">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="498" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B498">
         <v>490</v>
       </c>
@@ -7350,8 +8817,11 @@
       <c r="E498" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="499" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B499">
         <v>491</v>
       </c>
@@ -7364,8 +8834,11 @@
       <c r="E499" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="500" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F499">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="500" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B500">
         <v>492</v>
       </c>
@@ -7378,8 +8851,11 @@
       <c r="E500" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="501" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F500">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B501">
         <v>493</v>
       </c>
@@ -7392,8 +8868,11 @@
       <c r="E501" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="502" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F501">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="502" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B502">
         <v>494</v>
       </c>
@@ -7406,8 +8885,11 @@
       <c r="E502" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="503" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F502">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="503" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B503">
         <v>495</v>
       </c>
@@ -7420,8 +8902,11 @@
       <c r="E503" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="504" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F503">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B504">
         <v>496</v>
       </c>
@@ -7434,8 +8919,11 @@
       <c r="E504" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="505" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B505">
         <v>497</v>
       </c>
@@ -7448,8 +8936,11 @@
       <c r="E505" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="506" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B506">
         <v>498</v>
       </c>
@@ -7462,8 +8953,11 @@
       <c r="E506" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="507" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F506">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="507" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B507">
         <v>499</v>
       </c>
@@ -7476,8 +8970,11 @@
       <c r="E507" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="508" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F507">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="508" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B508">
         <v>500</v>
       </c>
@@ -7490,64 +8987,7 @@
       <c r="E508" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C534">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C535">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C536">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C537">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C538">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C539">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C540">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C541">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C542">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C543">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C544">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C545">
+      <c r="F508">
         <v>8</v>
       </c>
     </row>
@@ -7567,6 +9007,8 @@
       <FileText>from SolverStudio import *
 from gurobipy import *
 m = Model('ENGGEN403')
+m.params.TimeLimit = 120
+m.params.MIPGap = 0.9
 #==============================
 #   Calculated Values
 if alpha&lt;0 or alpha&gt;1:
@@ -7653,7 +9095,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05B68A95-8624-4433-962E-5C66C28FD26C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CCAF455-12E6-4FAC-BC1D-A49D013543AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://opensolver.org"/>

--- a/Group Allocator.xlsx
+++ b/Group Allocator.xlsx
@@ -9,49 +9,49 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11385" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="7905" tabRatio="747"/>
   </bookViews>
   <sheets>
-    <sheet name="PuLP" sheetId="3" r:id="rId1"/>
-    <sheet name="PuLPSolutionQuality" sheetId="6" r:id="rId2"/>
-    <sheet name="PivotChart" sheetId="4" r:id="rId3"/>
+    <sheet name="Model" sheetId="3" r:id="rId1"/>
+    <sheet name="SolutionQuality" sheetId="6" r:id="rId2"/>
+    <sheet name="PivotChart" sheetId="4" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Ethnicity" localSheetId="0">OFFSET(PuLP!$E$2,0,0,COUNTA(PuLP!$A$2:$A$1000),1)</definedName>
+    <definedName name="Ethnicity" localSheetId="0">OFFSET(Model!$E$2,0,0,COUNTA(Model!$A$2:$A$1000),1)</definedName>
     <definedName name="Ethnicity.badindex" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="Ethnicity.rowindex" localSheetId="0" hidden="1">PuLP!STUDENTS</definedName>
+    <definedName name="Ethnicity.rowindex" localSheetId="0" hidden="1">Model!STUDENTS</definedName>
     <definedName name="Ethnicity.rowindex.dirn" localSheetId="0" hidden="1">"row"</definedName>
-    <definedName name="ethnicity_weight" localSheetId="0">PuLP!$I$8</definedName>
-    <definedName name="Gender" localSheetId="0">OFFSET(PuLP!$D$2,0,0,COUNTA(PuLP!$A$2:$A$1000),1)</definedName>
+    <definedName name="ethnicity_weight" localSheetId="0">Model!$I$8</definedName>
+    <definedName name="Gender" localSheetId="0">OFFSET(Model!$D$2,0,0,COUNTA(Model!$A$2:$A$1000),1)</definedName>
     <definedName name="Gender.badindex" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="Gender.rowindex" localSheetId="0" hidden="1">PuLP!STUDENTS</definedName>
+    <definedName name="Gender.rowindex" localSheetId="0" hidden="1">Model!STUDENTS</definedName>
     <definedName name="Gender.rowindex.dirn" localSheetId="0" hidden="1">"row"</definedName>
-    <definedName name="gender_weight" localSheetId="0">PuLP!$I$7</definedName>
-    <definedName name="Gpa" localSheetId="0">OFFSET(PuLP!$B$2,0,0,COUNTA(PuLP!$A$2:$A$1000),1)</definedName>
+    <definedName name="gender_weight" localSheetId="0">Model!$I$7</definedName>
+    <definedName name="Gpa" localSheetId="0">OFFSET(Model!$B$2,0,0,COUNTA(Model!$A$2:$A$1000),1)</definedName>
     <definedName name="Gpa.badindex" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="Gpa.rowindex" localSheetId="0" hidden="1">PuLP!STUDENTS</definedName>
+    <definedName name="Gpa.rowindex" localSheetId="0" hidden="1">Model!STUDENTS</definedName>
     <definedName name="Gpa.rowindex.dirn" localSheetId="0" hidden="1">"row"</definedName>
-    <definedName name="GPADIFF" localSheetId="0">PuLP!$I$10</definedName>
-    <definedName name="GPASD" localSheetId="0">PuLP!$I$9</definedName>
-    <definedName name="Groups" localSheetId="0">OFFSET(PuLP!$F$2,0,0,COUNTA(PuLP!$A$2:$A$1000),1)</definedName>
+    <definedName name="GPADIFF" localSheetId="0">Model!$I$10</definedName>
+    <definedName name="GPASD" localSheetId="0">Model!$I$9</definedName>
+    <definedName name="Groups" localSheetId="0">OFFSET(Model!$F$2,0,0,COUNTA(Model!$A$2:$A$1000),1)</definedName>
     <definedName name="Groups.badindex" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="Groups.rowindex" localSheetId="0" hidden="1">PuLP!STUDENTS</definedName>
+    <definedName name="Groups.rowindex" localSheetId="0" hidden="1">Model!STUDENTS</definedName>
     <definedName name="Groups.rowindex.dirn" localSheetId="0" hidden="1">"row"</definedName>
-    <definedName name="mean_weight" localSheetId="0">PuLP!$I$4</definedName>
-    <definedName name="ngroups" localSheetId="0">PuLP!$I$3</definedName>
-    <definedName name="Spec" localSheetId="0">OFFSET(PuLP!$C$2,0,0,COUNTA(PuLP!$A$2:$A$1000),1)</definedName>
+    <definedName name="mean_weight" localSheetId="0">Model!$I$4</definedName>
+    <definedName name="ngroups" localSheetId="0">Model!$I$3</definedName>
+    <definedName name="Spec" localSheetId="0">OFFSET(Model!$C$2,0,0,COUNTA(Model!$A$2:$A$1000),1)</definedName>
     <definedName name="Spec.badindex" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="Spec.rowindex" localSheetId="0" hidden="1">PuLP!STUDENTS</definedName>
+    <definedName name="Spec.rowindex" localSheetId="0" hidden="1">Model!STUDENTS</definedName>
     <definedName name="Spec.rowindex.dirn" localSheetId="0" hidden="1">"row"</definedName>
-    <definedName name="spec_weight" localSheetId="0">PuLP!$I$6</definedName>
-    <definedName name="STUDENTS" localSheetId="0">OFFSET(PuLP!$A$2,0,0,COUNTA(PuLP!$A$2:$A$1000),1)</definedName>
+    <definedName name="spec_weight" localSheetId="0">Model!$I$6</definedName>
+    <definedName name="STUDENTS" localSheetId="0">OFFSET(Model!$A$2,0,0,COUNTA(Model!$A$2:$A$1000),1)</definedName>
     <definedName name="STUDENTS.dirn" localSheetId="0" hidden="1">"row"</definedName>
-    <definedName name="timelimit" localSheetId="0">PuLP!$I$2</definedName>
-    <definedName name="var_weight" localSheetId="0">PuLP!$I$5</definedName>
+    <definedName name="timelimit" localSheetId="0">Model!$I$2</definedName>
+    <definedName name="var_weight" localSheetId="0">Model!$I$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -705,64 +705,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.0099366802615677</c:v>
+                  <c:v>5.0222193789009246</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0016073065034563</c:v>
+                  <c:v>4.9581620259134711</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.952713775550694</c:v>
+                  <c:v>5.0008762748172026</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9085528405476939</c:v>
+                  <c:v>5.0091787924816487</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9269894400494394</c:v>
+                  <c:v>4.9279238149781497</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0281898655281916</c:v>
+                  <c:v>4.9508173249653238</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0015887831276533</c:v>
+                  <c:v>4.9139260619720817</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9289133242902574</c:v>
+                  <c:v>5.0450049654317199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9336396670691371</c:v>
+                  <c:v>4.9090617623363322</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0179135255529248</c:v>
+                  <c:v>4.9147266856259977</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9201722496157592</c:v>
+                  <c:v>5.0446193062064353</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9713242619846403</c:v>
+                  <c:v>4.9635768461588814</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.968010915672747</c:v>
+                  <c:v>4.9067422797410449</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9575767039328493</c:v>
+                  <c:v>4.9267084768990994</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9760801015811991</c:v>
+                  <c:v>5.0103494964623989</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0129471082696142</c:v>
+                  <c:v>4.9491173145483423</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.9799561945511321</c:v>
+                  <c:v>4.9225087658212363</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0037304345460001</c:v>
+                  <c:v>4.9751292765512316</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0090592271006429</c:v>
+                  <c:v>5.044979582189165</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.9074006155924232</c:v>
+                  <c:v>5.0206745893273359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,64 +879,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.1924519890040699</c:v>
+                  <c:v>4.1822517920478601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2439373613874567</c:v>
+                  <c:v>4.287066932331645</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2969145369531816</c:v>
+                  <c:v>4.1224369777775633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0529355907714404</c:v>
+                  <c:v>4.1076299710861646</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1418229295623945</c:v>
+                  <c:v>4.2445086824581892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3515120042944204</c:v>
+                  <c:v>4.0865725479715422</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1320566369487368</c:v>
+                  <c:v>4.2539423652172657</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1590187872089119</c:v>
+                  <c:v>4.4013368821392618</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0485739781667673</c:v>
+                  <c:v>4.0943940823153753</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1232159843007992</c:v>
+                  <c:v>3.9148710881515285</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.257179917064799</c:v>
+                  <c:v>4.3337861997445657</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1566443683624881</c:v>
+                  <c:v>4.1194455577893434</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0467923360845077</c:v>
+                  <c:v>4.0389371917572232</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1123969797882962</c:v>
+                  <c:v>4.0032120460249603</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.2347925099153754</c:v>
+                  <c:v>4.2243263872393628</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.2243772409680345</c:v>
+                  <c:v>4.0103404623805972</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1336532493018483</c:v>
+                  <c:v>4.4270531248372249</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0881209200332949</c:v>
+                  <c:v>4.0824232434865024</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1995390016612548</c:v>
+                  <c:v>4.1179865320436067</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.3490389565699035</c:v>
+                  <c:v>4.4740788447386466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,11 +952,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-22"/>
-        <c:axId val="244200688"/>
-        <c:axId val="244240152"/>
+        <c:axId val="239000136"/>
+        <c:axId val="242568336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="244200688"/>
+        <c:axId val="239000136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1055,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244240152"/>
+        <c:crossAx val="242568336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1063,7 +1063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244240152"/>
+        <c:axId val="242568336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -1158,7 +1158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244200688"/>
+        <c:crossAx val="239000136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1807,7 +1807,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart3"/>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="97" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1818,7 +1818,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9306719" cy="6078802"/>
+    <xdr:ext cx="9305192" cy="6081346"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1842,11 +1842,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Oscar" refreshedDate="41851.715443981484" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="500">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Oscar" refreshedDate="41857.402189583336" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="500">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F501" sheet="PuLP"/>
+    <worksheetSource ref="A1:F501" sheet="Model"/>
   </cacheSource>
-  <cacheFields count="5">
+  <cacheFields count="6">
     <cacheField name="Name" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="500"/>
     </cacheField>
@@ -1859,28 +1859,31 @@
     <cacheField name="Gender" numFmtId="0">
       <sharedItems/>
     </cacheField>
+    <cacheField name="Ethnicity" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
     <cacheField name="Group" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="20" count="20">
+        <n v="13"/>
+        <n v="15"/>
         <n v="17"/>
         <n v="8"/>
+        <n v="20"/>
+        <n v="7"/>
+        <n v="11"/>
+        <n v="18"/>
         <n v="10"/>
-        <n v="13"/>
-        <n v="11"/>
+        <n v="9"/>
+        <n v="3"/>
         <n v="19"/>
+        <n v="1"/>
+        <n v="14"/>
+        <n v="4"/>
+        <n v="6"/>
         <n v="12"/>
-        <n v="9"/>
-        <n v="1"/>
-        <n v="18"/>
-        <n v="4"/>
+        <n v="2"/>
         <n v="16"/>
-        <n v="14"/>
-        <n v="2"/>
-        <n v="6"/>
         <n v="5"/>
-        <n v="20"/>
-        <n v="3"/>
-        <n v="7"/>
-        <n v="15"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1899,6 +1902,7 @@
     <n v="4.2385351981095374"/>
     <s v="A"/>
     <s v="M"/>
+    <s v="A"/>
     <x v="0"/>
   </r>
   <r>
@@ -1906,6 +1910,7 @@
     <n v="5.6990755812505256"/>
     <s v="B"/>
     <s v="M"/>
+    <s v="A"/>
     <x v="1"/>
   </r>
   <r>
@@ -1913,293 +1918,335 @@
     <n v="5.5676565057242531"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="2"/>
+    <s v="A"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="4"/>
     <n v="5.7806422932846369"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="3"/>
+    <s v="A"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="5"/>
     <n v="8.2693487715138065"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="4"/>
+    <s v="A"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="6"/>
     <n v="2.3098121729120416"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="0"/>
+    <s v="A"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="7"/>
     <n v="5.61712785271882"/>
     <s v="B"/>
     <s v="F"/>
-    <x v="2"/>
+    <s v="A"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="8"/>
     <n v="5.1828051868004064"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="1"/>
+    <s v="A"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="9"/>
     <n v="5.7539617787969277"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="5"/>
+    <s v="A"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="10"/>
     <n v="3.0097763805082671"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="6"/>
+    <s v="B"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="11"/>
     <n v="2.4776007334809163"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="6"/>
+    <s v="B"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="12"/>
     <n v="4.0772834828466999"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="1"/>
+    <s v="B"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="13"/>
     <n v="6.6794342033226064"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="7"/>
+    <s v="B"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="14"/>
     <n v="6.4267250882882108"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="8"/>
+    <s v="B"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="15"/>
     <n v="7.5295722266765024"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="9"/>
+    <s v="C"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="16"/>
     <n v="4.7887646591654907"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="2"/>
+    <s v="C"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="17"/>
     <n v="4.7688286787064058"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="10"/>
+    <s v="C"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="18"/>
     <n v="3.3370690485504229"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="6"/>
+    <s v="C"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="19"/>
     <n v="6.2516808108477351"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="8"/>
+    <s v="D"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="20"/>
     <n v="5.043285690985976"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="11"/>
+    <s v="D"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="21"/>
     <n v="3.0642775404537357"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="E"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="22"/>
     <n v="0.33210721936247989"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="13"/>
+    <s v="A"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="23"/>
     <n v="7.6302263512007613"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="0"/>
+    <s v="A"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="24"/>
     <n v="4.8748988816572405"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="14"/>
+    <s v="A"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="25"/>
     <n v="5.3256879431281243"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="2"/>
+    <s v="A"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="26"/>
     <n v="4.5164216232765781"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="2"/>
+    <s v="A"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="27"/>
     <n v="6.5187031470988295"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="7"/>
+    <s v="A"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="28"/>
     <n v="5.176695018432353"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="14"/>
+    <s v="A"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="29"/>
     <n v="6.3358395058414585"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="A"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="30"/>
     <n v="6.3876459951075901"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="13"/>
+    <s v="A"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="31"/>
     <n v="4.0204325376831802"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="12"/>
+    <s v="B"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="32"/>
     <n v="1.3647557830117747"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="1"/>
+    <s v="B"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="33"/>
     <n v="2.6807807531306369"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="15"/>
+    <s v="B"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="34"/>
     <n v="2.2043267864022291"/>
     <s v="B"/>
     <s v="F"/>
-    <x v="15"/>
+    <s v="B"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="35"/>
     <n v="4.8231558135504997"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="16"/>
+    <s v="B"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="36"/>
     <n v="8.5054045686290571"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="14"/>
+    <s v="C"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="37"/>
     <n v="4.7649187156521755"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="3"/>
+    <s v="C"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="38"/>
     <n v="6.1635516690588172"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="9"/>
+    <s v="C"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="39"/>
     <n v="4.1444403893055553"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="16"/>
+    <s v="C"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="40"/>
     <n v="2.768056949580719"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="10"/>
+    <s v="D"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="41"/>
     <n v="7.9047851740116082"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="8"/>
+    <s v="D"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="42"/>
     <n v="8.7632433042701408"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="17"/>
+    <s v="A"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="43"/>
     <n v="10.597569452394531"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="11"/>
+    <s v="A"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="44"/>
     <n v="8.4657346722493259"/>
     <s v="B"/>
     <s v="M"/>
+    <s v="A"/>
     <x v="13"/>
   </r>
   <r>
@@ -2207,181 +2254,207 @@
     <n v="5.5719332217855069"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="0"/>
+    <s v="A"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="46"/>
     <n v="7.5348427238190858"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="18"/>
+    <s v="A"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="47"/>
     <n v="6.589818912456586"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="7"/>
+    <s v="A"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="48"/>
     <n v="5.3885656521022032"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="17"/>
+    <s v="A"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="49"/>
     <n v="2.1241345276240571"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="3"/>
+    <s v="A"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="50"/>
     <n v="7.966308320240163"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="16"/>
+    <s v="A"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="51"/>
     <n v="0.98484944970328847"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="17"/>
+    <s v="B"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="52"/>
     <n v="4.7757965419475363"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="2"/>
+    <s v="B"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="53"/>
     <n v="3.5815610149036576"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="1"/>
+    <s v="B"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="54"/>
     <n v="8.0684062285775333"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="6"/>
+    <s v="B"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="55"/>
     <n v="4.3371677265714847"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="18"/>
+    <s v="B"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="56"/>
     <n v="6.6131653169848459"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="19"/>
+    <s v="C"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="57"/>
     <n v="4.0773510690159069"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="3"/>
+    <s v="C"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="58"/>
     <n v="1.1576416985926219"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="0"/>
+    <s v="C"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="59"/>
     <n v="7.6251274780746083"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="0"/>
+    <s v="C"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="60"/>
     <n v="5.058880977973625"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="6"/>
+    <s v="D"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="61"/>
     <n v="2.1994753750725882"/>
     <s v="B"/>
     <s v="F"/>
-    <x v="15"/>
+    <s v="D"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="62"/>
     <n v="5.3515109267214642"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="16"/>
+    <s v="E"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="63"/>
     <n v="4.4604886685673701"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="16"/>
+    <s v="A"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="64"/>
     <n v="9.4771460659905316"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="16"/>
+    <s v="A"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="65"/>
     <n v="4.8280892774569004"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="14"/>
+    <s v="A"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="66"/>
     <n v="2.200792900951924"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="9"/>
+    <s v="A"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="67"/>
     <n v="4.7752080751594344"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="A"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="68"/>
     <n v="4.6639398347825258"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="11"/>
+    <s v="A"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="69"/>
     <n v="4.7734816993014766"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="A"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="70"/>
     <n v="4.785953508902673"/>
     <s v="B"/>
     <s v="M"/>
+    <s v="A"/>
     <x v="0"/>
   </r>
   <r>
@@ -2389,118 +2462,135 @@
     <n v="6.4878219222214719"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="0"/>
+    <s v="A"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="72"/>
     <n v="3.189044477802379"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="19"/>
+    <s v="B"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="73"/>
     <n v="6.6814805022170818"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="15"/>
+    <s v="B"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="74"/>
     <n v="7.340470062377368"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="0"/>
+    <s v="B"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="75"/>
     <n v="1.1712915878620058"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="3"/>
+    <s v="B"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="76"/>
     <n v="7.1017657688139222"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="18"/>
+    <s v="B"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="77"/>
     <n v="5.0160570471117936"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="1"/>
+    <s v="C"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="78"/>
     <n v="6.7552536087566351"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="7"/>
+    <s v="C"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="79"/>
     <n v="2.3623676039527144"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="10"/>
+    <s v="C"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="80"/>
     <n v="7.1959226669396781"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="4"/>
+    <s v="C"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="81"/>
     <n v="3.4997149088349575"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="8"/>
+    <s v="D"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="82"/>
     <n v="6.0336027626004762"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="8"/>
+    <s v="D"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="83"/>
     <n v="7.2649685948834763"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="6"/>
+    <s v="E"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="84"/>
     <n v="4.6461523025713989"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="1"/>
+    <s v="A"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="85"/>
     <n v="7.0971564949297168"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="19"/>
+    <s v="A"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="86"/>
     <n v="2.4789279950678429"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="16"/>
+    <s v="A"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="87"/>
     <n v="3.7378573175755925"/>
     <s v="C"/>
     <s v="F"/>
+    <s v="A"/>
     <x v="10"/>
   </r>
   <r>
@@ -2508,139 +2598,159 @@
     <n v="4.6680377390157304"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="3"/>
+    <s v="A"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="89"/>
     <n v="1.8908610098867489"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="18"/>
+    <s v="A"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="90"/>
     <n v="7.1199605985010797"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="9"/>
+    <s v="A"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="91"/>
     <n v="8.0501423307506936"/>
     <s v="B"/>
     <s v="F"/>
-    <x v="17"/>
+    <s v="A"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="92"/>
     <n v="4.5629836862837623"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="4"/>
+    <s v="A"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="93"/>
     <n v="-0.18251888417868489"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="7"/>
+    <s v="B"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="94"/>
     <n v="5.4402697632356976"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="4"/>
+    <s v="B"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="95"/>
     <n v="5.7913405773682358"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="8"/>
+    <s v="B"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="96"/>
     <n v="6.2886625520545296"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="11"/>
+    <s v="B"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="97"/>
     <n v="4.3177741331167363"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="5"/>
+    <s v="B"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="98"/>
     <n v="7.5831564619757419"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="19"/>
+    <s v="C"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="99"/>
     <n v="7.3859980052601646"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="5"/>
+    <s v="C"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="100"/>
     <n v="7.1781000879982564"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="6"/>
+    <s v="C"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="101"/>
     <n v="2.080487289426034"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="11"/>
+    <s v="C"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="102"/>
     <n v="3.3792234094119395"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="9"/>
+    <s v="D"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="103"/>
     <n v="6.9748628598120259"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="14"/>
+    <s v="D"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="104"/>
     <n v="2.0995794942444586"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="19"/>
+    <s v="E"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="105"/>
     <n v="3.8827329502145842"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="10"/>
+    <s v="A"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="106"/>
     <n v="3.3210219704021195"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="15"/>
+    <s v="A"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="107"/>
     <n v="-0.5057917611056606"/>
     <s v="B"/>
     <s v="M"/>
+    <s v="A"/>
     <x v="2"/>
   </r>
   <r>
@@ -2648,13 +2758,15 @@
     <n v="3.5434723670568893"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="2"/>
+    <s v="A"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="109"/>
     <n v="2.8975969238591031"/>
     <s v="B"/>
     <s v="M"/>
+    <s v="A"/>
     <x v="19"/>
   </r>
   <r>
@@ -2662,391 +2774,447 @@
     <n v="6.5799036728759139"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="A"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="111"/>
     <n v="2.8428544821611901"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="8"/>
+    <s v="A"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="112"/>
     <n v="6.9720749726776763"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="7"/>
+    <s v="A"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="113"/>
     <n v="4.1480895804803382"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="15"/>
+    <s v="A"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="114"/>
     <n v="4.5662164473566476"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="16"/>
+    <s v="B"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="115"/>
     <n v="8.7403000316275374"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="0"/>
+    <s v="B"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="116"/>
     <n v="5.0786828114616629"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="15"/>
+    <s v="B"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="117"/>
     <n v="3.7892142319597575"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="9"/>
+    <s v="B"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="118"/>
     <n v="4.4655417451508681"/>
     <s v="B"/>
     <s v="F"/>
-    <x v="4"/>
+    <s v="B"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="119"/>
     <n v="6.2311264508238269"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="18"/>
+    <s v="C"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="120"/>
     <n v="3.3567186280593972"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="18"/>
+    <s v="C"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="121"/>
     <n v="4.750099120670221"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="1"/>
+    <s v="C"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="122"/>
     <n v="5.9106326440991435"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="15"/>
+    <s v="C"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="123"/>
     <n v="3.0908731400696103"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="8"/>
+    <s v="D"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="124"/>
     <n v="1.4756556306291784"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="15"/>
+    <s v="D"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="125"/>
     <n v="4.7568710287905063"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="E"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="126"/>
     <n v="5.8210740668422689"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="13"/>
+    <s v="A"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="127"/>
     <n v="3.2630962355237036"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="A"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="128"/>
     <n v="4.0521852784126979"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="17"/>
+    <s v="A"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="129"/>
     <n v="6.1264175971019386"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="5"/>
+    <s v="A"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="130"/>
     <n v="1.6152295192175723"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="11"/>
+    <s v="A"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="131"/>
     <n v="3.3442240869096462"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="19"/>
+    <s v="A"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="132"/>
     <n v="7.806838918433586"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="2"/>
+    <s v="A"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="133"/>
     <n v="5.770436284171848"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="15"/>
+    <s v="A"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="134"/>
     <n v="6.1981709190170156"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="7"/>
+    <s v="A"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="135"/>
     <n v="5.1621084854579786"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="7"/>
+    <s v="B"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="136"/>
     <n v="5.0035597084136691"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="13"/>
+    <s v="B"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="137"/>
     <n v="4.198975366235743"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="13"/>
+    <s v="B"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="138"/>
     <n v="5.6765807108684756"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="15"/>
+    <s v="B"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="139"/>
     <n v="8.3535680971158577"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="10"/>
+    <s v="B"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="140"/>
     <n v="8.3774274062974108"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="5"/>
+    <s v="C"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="141"/>
     <n v="7.9895114600650885"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="2"/>
+    <s v="C"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="142"/>
     <n v="2.7646791150540548"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="6"/>
+    <s v="C"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="143"/>
     <n v="7.3947612414805679"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="17"/>
+    <s v="C"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="144"/>
     <n v="4.2179043509694205"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="4"/>
+    <s v="D"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="145"/>
     <n v="6.7526236765372598"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="1"/>
+    <s v="D"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="146"/>
     <n v="3.8954145995195004"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="5"/>
+    <s v="E"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="147"/>
     <n v="5.0173822429304158"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="19"/>
+    <s v="A"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="148"/>
     <n v="4.1266649974139993"/>
     <s v="B"/>
     <s v="F"/>
-    <x v="11"/>
+    <s v="A"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="149"/>
     <n v="4.1377456671439425"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="17"/>
+    <s v="A"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="150"/>
     <n v="3.3275986587417234"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="7"/>
+    <s v="A"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="151"/>
     <n v="5.4400959618881437"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="2"/>
+    <s v="A"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="152"/>
     <n v="5.8635326225090374"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="14"/>
+    <s v="A"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="153"/>
     <n v="4.5746147828589514"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="15"/>
+    <s v="A"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="154"/>
     <n v="9.9223132885403729"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="9"/>
+    <s v="A"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="155"/>
     <n v="3.1005368022268613"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="18"/>
+    <s v="A"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="156"/>
     <n v="4.915969014890007"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="0"/>
+    <s v="B"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="157"/>
     <n v="10.622850067991727"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="3"/>
+    <s v="B"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="158"/>
     <n v="7.0069435297459233"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="0"/>
+    <s v="B"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="159"/>
     <n v="3.3929770466448872"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="0"/>
+    <s v="B"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="160"/>
     <n v="6.0502099883172953"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="18"/>
+    <s v="B"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="161"/>
     <n v="6.1677227593035031"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="8"/>
+    <s v="C"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="162"/>
     <n v="1.5820404109777635"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="1"/>
+    <s v="C"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="163"/>
     <n v="7.1339880865865952"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="0"/>
+    <s v="C"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="164"/>
     <n v="6.8573274135681457"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="7"/>
+    <s v="C"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="165"/>
     <n v="2.8410808923374793"/>
     <s v="B"/>
     <s v="M"/>
+    <s v="D"/>
     <x v="14"/>
   </r>
   <r>
@@ -3054,62 +3222,71 @@
     <n v="2.5517944371156465"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="14"/>
+    <s v="D"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="167"/>
     <n v="4.4750506684513267"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="10"/>
+    <s v="A"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="168"/>
     <n v="3.311256617703477"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="6"/>
+    <s v="A"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="169"/>
     <n v="3.3564669418397637"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="10"/>
+    <s v="A"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="170"/>
     <n v="5.1895215209213115"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="1"/>
+    <s v="A"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="171"/>
     <n v="6.2819004355209485"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="4"/>
+    <s v="A"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="172"/>
     <n v="5.4176309147572894"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="9"/>
+    <s v="A"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="173"/>
     <n v="6.589953069146107"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="19"/>
+    <s v="A"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="174"/>
     <n v="4.481713150121144"/>
     <s v="A"/>
     <s v="F"/>
+    <s v="A"/>
     <x v="9"/>
   </r>
   <r>
@@ -3117,13 +3294,15 @@
     <n v="2.3634313301973862"/>
     <s v="B"/>
     <s v="F"/>
-    <x v="10"/>
+    <s v="A"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="176"/>
     <n v="2.2146886328996764"/>
     <s v="C"/>
     <s v="F"/>
+    <s v="B"/>
     <x v="5"/>
   </r>
   <r>
@@ -3131,125 +3310,143 @@
     <n v="9.8070482665685894"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="2"/>
+    <s v="B"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="178"/>
     <n v="2.8093744884680127"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="17"/>
+    <s v="B"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="179"/>
     <n v="7.3266251938319762"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="19"/>
+    <s v="B"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="180"/>
     <n v="7.5831180878247757"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="17"/>
+    <s v="B"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="181"/>
     <n v="6.4773326108143774"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="2"/>
+    <s v="C"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="182"/>
     <n v="6.0673840155245689"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="10"/>
+    <s v="C"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="183"/>
     <n v="5.5159540096904109"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="C"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="184"/>
     <n v="2.4752101250514156"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="4"/>
+    <s v="C"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="185"/>
     <n v="4.6751522811068948"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="11"/>
+    <s v="D"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="186"/>
     <n v="2.5890853760939216"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="11"/>
+    <s v="D"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="187"/>
     <n v="4.9334505945888392"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="5"/>
+    <s v="E"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="188"/>
     <n v="4.3474787782710047"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="0"/>
+    <s v="A"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="189"/>
     <n v="2.5896829179608374"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="5"/>
+    <s v="A"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="190"/>
     <n v="3.8278370841439542"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="17"/>
+    <s v="A"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="191"/>
     <n v="6.2430548683711553"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="14"/>
+    <s v="A"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="192"/>
     <n v="4.1589203105530776"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="6"/>
+    <s v="A"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="193"/>
     <n v="4.2689334804022252"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="11"/>
+    <s v="A"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="194"/>
     <n v="2.0014889280807622"/>
     <s v="B"/>
     <s v="M"/>
+    <s v="A"/>
     <x v="19"/>
   </r>
   <r>
@@ -3257,6 +3454,7 @@
     <n v="3.8615922027017335"/>
     <s v="B"/>
     <s v="M"/>
+    <s v="A"/>
     <x v="12"/>
   </r>
   <r>
@@ -3264,160 +3462,183 @@
     <n v="2.3030870470143774"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="11"/>
+    <s v="A"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="197"/>
     <n v="1.737150276321882"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="B"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="198"/>
     <n v="1.9011066172690096"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="8"/>
+    <s v="B"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="199"/>
     <n v="5.4771943081931314"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="15"/>
+    <s v="B"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="200"/>
     <n v="4.1170861965622176"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="0"/>
+    <s v="B"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="201"/>
     <n v="3.1267685549534434"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="4"/>
+    <s v="B"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="202"/>
     <n v="6.2611392025272563"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="1"/>
+    <s v="C"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="203"/>
     <n v="5.1381790115268773"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="19"/>
+    <s v="C"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="204"/>
     <n v="4.990187296103433"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="13"/>
+    <s v="C"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="205"/>
     <n v="5.3900665504294807"/>
     <s v="B"/>
     <s v="F"/>
-    <x v="1"/>
+    <s v="C"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="206"/>
     <n v="5.5842702109963769"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="5"/>
+    <s v="D"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="207"/>
     <n v="7.6882391446521758"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="6"/>
+    <s v="D"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="208"/>
     <n v="1.1365806683976039"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="14"/>
+    <s v="E"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="209"/>
     <n v="6.6210135406699724"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="19"/>
+    <s v="A"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="210"/>
     <n v="5.5457341387115786"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="14"/>
+    <s v="A"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="211"/>
     <n v="1.9765314948477468"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="6"/>
+    <s v="A"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="212"/>
     <n v="7.3172526721827218"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="A"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="213"/>
     <n v="2.7194378017518734"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="13"/>
+    <s v="A"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="214"/>
     <n v="7.5895852306748193"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="17"/>
+    <s v="A"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="215"/>
     <n v="5.6971302500707992"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="A"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="216"/>
     <n v="5.6507113765157309"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="19"/>
+    <s v="A"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="217"/>
     <n v="5.2834951005889792"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="4"/>
+    <s v="A"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="218"/>
     <n v="5.7057283090512021"/>
     <s v="A"/>
     <s v="M"/>
+    <s v="B"/>
     <x v="18"/>
   </r>
   <r>
@@ -3425,195 +3646,223 @@
     <n v="4.2542618695643846"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="4"/>
+    <s v="B"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="220"/>
     <n v="4.2241320415549"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="B"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="221"/>
     <n v="5.8325599136273292"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="0"/>
+    <s v="B"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="222"/>
     <n v="7.0562207324589856"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="8"/>
+    <s v="B"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="223"/>
     <n v="4.6235606624516192"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="C"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="224"/>
     <n v="3.193104822520735"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="3"/>
+    <s v="C"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="225"/>
     <n v="3.4445586490394975"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="1"/>
+    <s v="C"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="226"/>
     <n v="6.8700047971131717"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="18"/>
+    <s v="C"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="227"/>
     <n v="4.8951201394508335"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="15"/>
+    <s v="D"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="228"/>
     <n v="6.2521073103682623"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="5"/>
+    <s v="D"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="229"/>
     <n v="3.2702159284549488"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="6"/>
+    <s v="E"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="230"/>
     <n v="6.1295913427206843"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="8"/>
+    <s v="A"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="231"/>
     <n v="6.6614477149365872"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="3"/>
+    <s v="A"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="232"/>
     <n v="3.5629190667566295"/>
     <s v="B"/>
     <s v="F"/>
-    <x v="0"/>
+    <s v="A"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="233"/>
     <n v="6.0180967387640845"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="4"/>
+    <s v="A"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="234"/>
     <n v="2.7631015728823294"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="2"/>
+    <s v="A"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="235"/>
     <n v="4.3411530618724328"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="4"/>
+    <s v="A"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="236"/>
     <n v="5.7102536108954016"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="2"/>
+    <s v="A"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="237"/>
     <n v="6.7060582809734495"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="5"/>
+    <s v="A"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="238"/>
     <n v="3.8288277687560299"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="11"/>
+    <s v="A"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="239"/>
     <n v="8.4419052455612018"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="17"/>
+    <s v="B"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="240"/>
     <n v="3.9107301301499335"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="B"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="241"/>
     <n v="4.6654899149454314"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="1"/>
+    <s v="B"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="242"/>
     <n v="4.4673984231815256"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="16"/>
+    <s v="B"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="243"/>
     <n v="1.4093120568974342"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="18"/>
+    <s v="B"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="244"/>
     <n v="3.3362268988037576"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="7"/>
+    <s v="C"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="245"/>
     <n v="5.5011425372147418"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="11"/>
+    <s v="C"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="246"/>
     <n v="4.2406499789285723"/>
     <s v="A"/>
     <s v="M"/>
+    <s v="C"/>
     <x v="17"/>
   </r>
   <r>
@@ -3621,223 +3870,255 @@
     <n v="5.292211218698589"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="9"/>
+    <s v="C"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="248"/>
     <n v="5.6527660803863826"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="2"/>
+    <s v="D"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="249"/>
     <n v="5.3804015603661988"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="19"/>
+    <s v="D"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="250"/>
     <n v="2.1847453415349825"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="13"/>
+    <s v="E"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="251"/>
     <n v="3.7423886358322696"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="17"/>
+    <s v="A"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="252"/>
     <n v="3.6987953235819981"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="18"/>
+    <s v="A"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="253"/>
     <n v="4.9408931445573785"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="1"/>
+    <s v="A"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="254"/>
     <n v="4.5769450286122906"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="7"/>
+    <s v="A"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="255"/>
     <n v="3.4900418644095241"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="10"/>
+    <s v="A"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="256"/>
     <n v="5.78794973964966"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="15"/>
+    <s v="A"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="257"/>
     <n v="3.8490460789348919"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="8"/>
+    <s v="A"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="258"/>
     <n v="7.2020010478677801"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="18"/>
+    <s v="A"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="259"/>
     <n v="4.5234802154762646"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="9"/>
+    <s v="A"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="260"/>
     <n v="7.1987390356325598"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="1"/>
+    <s v="B"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="261"/>
     <n v="6.0555487226128566"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="10"/>
+    <s v="B"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="262"/>
     <n v="3.9395250510203357"/>
     <s v="B"/>
     <s v="F"/>
-    <x v="9"/>
+    <s v="B"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="263"/>
     <n v="4.6725550268406764"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="14"/>
+    <s v="B"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="264"/>
     <n v="7.9325150422296238"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="7"/>
+    <s v="B"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="265"/>
     <n v="6.8705702828630733"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="4"/>
+    <s v="C"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="266"/>
     <n v="4.9886445792165075"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="5"/>
+    <s v="C"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="267"/>
     <n v="6.2975698845374284"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="3"/>
+    <s v="C"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="268"/>
     <n v="4.9374545339634706"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="13"/>
+    <s v="C"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="269"/>
     <n v="5.5929468302194572"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="0"/>
+    <s v="D"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="270"/>
     <n v="7.3818956827797138"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="6"/>
+    <s v="D"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="271"/>
     <n v="5.9238805642206316"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="10"/>
+    <s v="E"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="272"/>
     <n v="4.8497156479734835"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="3"/>
+    <s v="A"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="273"/>
     <n v="4.7749194196011029"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="5"/>
+    <s v="A"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="274"/>
     <n v="6.9788349108474872"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="17"/>
+    <s v="A"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="275"/>
     <n v="7.3517196733712176"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="13"/>
+    <s v="A"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="276"/>
     <n v="4.7434851613524192"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="3"/>
+    <s v="A"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="277"/>
     <n v="6.8262232694234548"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="4"/>
+    <s v="A"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="278"/>
     <n v="5.4270278462753234"/>
     <s v="B"/>
     <s v="M"/>
+    <s v="A"/>
     <x v="1"/>
   </r>
   <r>
@@ -3845,363 +4126,415 @@
     <n v="3.6069649147035827"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="7"/>
+    <s v="A"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="280"/>
     <n v="8.2147703743314935"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="11"/>
+    <s v="A"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="281"/>
     <n v="2.2258351663240994"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="2"/>
+    <s v="B"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="282"/>
     <n v="1.2891037438063981"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="19"/>
+    <s v="B"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="283"/>
     <n v="1.444616362789541"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="5"/>
+    <s v="B"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="284"/>
     <n v="2.4838753876907438"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="4"/>
+    <s v="B"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="285"/>
     <n v="3.0129143129961911"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="16"/>
+    <s v="B"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="286"/>
     <n v="2.8772910393880755"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="14"/>
+    <s v="C"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="287"/>
     <n v="5.0240130379000583"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="1"/>
+    <s v="C"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="288"/>
     <n v="5.5569889659336509"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="19"/>
+    <s v="C"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="289"/>
     <n v="2.0064322705465316"/>
     <s v="B"/>
     <s v="F"/>
-    <x v="14"/>
+    <s v="C"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="290"/>
     <n v="2.5632412402723221"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="6"/>
+    <s v="D"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="291"/>
     <n v="3.7238093990456882"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="4"/>
+    <s v="D"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="292"/>
     <n v="5.9056344912233509"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="5"/>
+    <s v="A"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="293"/>
     <n v="8.5196855120857791"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="16"/>
+    <s v="A"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="294"/>
     <n v="4.4701361086386777"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="16"/>
+    <s v="A"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="295"/>
     <n v="7.2097077641085718"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="5"/>
+    <s v="A"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="296"/>
     <n v="8.7573526422283141"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="11"/>
+    <s v="A"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="297"/>
     <n v="2.6088091095170802"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="9"/>
+    <s v="A"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="298"/>
     <n v="1.481808376921685"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="5"/>
+    <s v="A"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="299"/>
     <n v="5.0019917103543587"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="6"/>
+    <s v="A"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="300"/>
     <n v="2.2613938600618528"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="6"/>
+    <s v="A"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="301"/>
     <n v="4.406113577575808"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="14"/>
+    <s v="B"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="302"/>
     <n v="5.0011522024088313"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="19"/>
+    <s v="B"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="303"/>
     <n v="4.6073965517986419"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="19"/>
+    <s v="B"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="304"/>
     <n v="2.9604172124209183"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="18"/>
+    <s v="B"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="305"/>
     <n v="7.219191392683447"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="6"/>
+    <s v="B"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="306"/>
     <n v="5.5182963793934823"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="17"/>
+    <s v="C"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="307"/>
     <n v="4.3848804280840339"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="2"/>
+    <s v="C"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="308"/>
     <n v="5.5864826279752391"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="8"/>
+    <s v="C"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="309"/>
     <n v="8.3412454757414434"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="15"/>
+    <s v="C"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="310"/>
     <n v="6.490950398903677"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="8"/>
+    <s v="D"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="311"/>
     <n v="1.5742991476820691"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="9"/>
+    <s v="D"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="312"/>
     <n v="3.1392024654879807"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="0"/>
+    <s v="E"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="313"/>
     <n v="5.2992889016144318"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="11"/>
+    <s v="A"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="314"/>
     <n v="0.51292642699514168"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="19"/>
+    <s v="A"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="315"/>
     <n v="5.4443739125231412"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="2"/>
+    <s v="A"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="316"/>
     <n v="5.5902899706567997"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="11"/>
+    <s v="A"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="317"/>
     <n v="3.9452525091116382"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="14"/>
+    <s v="A"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="318"/>
     <n v="2.4721100428319538"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="13"/>
+    <s v="A"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="319"/>
     <n v="5.2366381047837915"/>
     <s v="B"/>
     <s v="F"/>
-    <x v="3"/>
+    <s v="A"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="320"/>
     <n v="7.3591976353598261"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="4"/>
+    <s v="A"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="321"/>
     <n v="7.8027258946993685"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="5"/>
+    <s v="A"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="322"/>
     <n v="6.984143347662342"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="8"/>
+    <s v="B"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="323"/>
     <n v="7.0876592490700041"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="6"/>
+    <s v="B"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="324"/>
     <n v="7.8993671379829049"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="18"/>
+    <s v="B"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="325"/>
     <n v="5.0163279380964445"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="7"/>
+    <s v="B"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="326"/>
     <n v="2.4534521876757593"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="2"/>
+    <s v="B"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="327"/>
     <n v="7.4400533372639686"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="10"/>
+    <s v="C"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="328"/>
     <n v="5.3695612676696083"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="7"/>
+    <s v="C"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="329"/>
     <n v="11.096517374672818"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="C"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="330"/>
     <n v="6.8390843294128114"/>
     <s v="A"/>
     <s v="M"/>
+    <s v="C"/>
     <x v="13"/>
   </r>
   <r>
@@ -4209,125 +4542,143 @@
     <n v="5.7294155277739094"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="7"/>
+    <s v="D"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="332"/>
     <n v="6.8733384250646745"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="14"/>
+    <s v="D"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="333"/>
     <n v="7.2209928605806013"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="13"/>
+    <s v="E"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="334"/>
     <n v="6.7702799808610106"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="10"/>
+    <s v="A"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="335"/>
     <n v="5.8680701490165026"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="18"/>
+    <s v="A"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="336"/>
     <n v="5.338683288008335"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="2"/>
+    <s v="A"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="337"/>
     <n v="6.5908922937848207"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="9"/>
+    <s v="A"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="338"/>
     <n v="1.341714718550918"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="0"/>
+    <s v="A"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="339"/>
     <n v="3.7401787551997905"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="A"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="340"/>
     <n v="2.9300174865879502"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="8"/>
+    <s v="A"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="341"/>
     <n v="2.6869642053589846"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="A"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="342"/>
     <n v="6.299098912889213"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="11"/>
+    <s v="A"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="343"/>
     <n v="3.914006583363844"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="11"/>
+    <s v="B"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="344"/>
     <n v="3.9356474566515462"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="3"/>
+    <s v="B"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="345"/>
     <n v="4.2557174344141444"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="9"/>
+    <s v="B"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="346"/>
     <n v="7.4980181517955096"/>
     <s v="B"/>
     <s v="F"/>
-    <x v="6"/>
+    <s v="B"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="347"/>
     <n v="6.1585998120578065"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="1"/>
+    <s v="B"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="348"/>
     <n v="5.1685290101391326"/>
     <s v="C"/>
     <s v="F"/>
+    <s v="C"/>
     <x v="8"/>
   </r>
   <r>
@@ -4335,111 +4686,127 @@
     <n v="4.1857182806832656"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="3"/>
+    <s v="C"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="350"/>
     <n v="5.4089224746557116"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="6"/>
+    <s v="C"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="351"/>
     <n v="5.5868420658535367"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="3"/>
+    <s v="C"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="352"/>
     <n v="7.2924533947057668"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="4"/>
+    <s v="D"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="353"/>
     <n v="5.7477218792733735"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="4"/>
+    <s v="D"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="354"/>
     <n v="4.6249634150455217"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="3"/>
+    <s v="E"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="355"/>
     <n v="3.8410472358827472"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="7"/>
+    <s v="A"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="356"/>
     <n v="6.0719054351626367"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="3"/>
+    <s v="A"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="357"/>
     <n v="2.1740950037643243"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="3"/>
+    <s v="A"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="358"/>
     <n v="4.7805339280773289"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="19"/>
+    <s v="A"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="359"/>
     <n v="2.8807326474759969"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="7"/>
+    <s v="A"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="360"/>
     <n v="5.8900361577208917"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="4"/>
+    <s v="A"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="361"/>
     <n v="3.8330613114501668"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="15"/>
+    <s v="A"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="362"/>
     <n v="3.4799545742516513"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="17"/>
+    <s v="A"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="363"/>
     <n v="3.2165017047376891"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="0"/>
+    <s v="A"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="364"/>
     <n v="3.1663554404698759"/>
     <s v="B"/>
     <s v="M"/>
+    <s v="B"/>
     <x v="3"/>
   </r>
   <r>
@@ -4447,27 +4814,31 @@
     <n v="3.4459094159599646"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="13"/>
+    <s v="B"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="366"/>
     <n v="7.2576377916710779"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="B"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="367"/>
     <n v="6.1919791962608315"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="13"/>
+    <s v="B"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="368"/>
     <n v="6.7757547864198155"/>
     <s v="B"/>
     <s v="M"/>
+    <s v="B"/>
     <x v="19"/>
   </r>
   <r>
@@ -4475,6 +4846,7 @@
     <n v="9.7087768915654458"/>
     <s v="B"/>
     <s v="M"/>
+    <s v="C"/>
     <x v="1"/>
   </r>
   <r>
@@ -4482,27 +4854,31 @@
     <n v="4.336826086364443"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="9"/>
+    <s v="C"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="371"/>
     <n v="2.6841414140542934"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="17"/>
+    <s v="C"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="372"/>
     <n v="2.6804774089411478"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="16"/>
+    <s v="C"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="373"/>
     <n v="4.1361300393471039"/>
     <s v="A"/>
     <s v="F"/>
+    <s v="D"/>
     <x v="17"/>
   </r>
   <r>
@@ -4510,209 +4886,239 @@
     <n v="8.2696495374926471"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="D"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="375"/>
     <n v="5.4645622575796144"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="9"/>
+    <s v="E"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="376"/>
     <n v="2.9440573104707695"/>
     <s v="B"/>
     <s v="F"/>
-    <x v="17"/>
+    <s v="A"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="377"/>
     <n v="7.022118132720637"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="10"/>
+    <s v="A"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="378"/>
     <n v="5.1248140934655941"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="2"/>
+    <s v="A"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="379"/>
     <n v="6.5861799755018682"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="19"/>
+    <s v="A"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="380"/>
     <n v="8.4579589870959335"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="10"/>
+    <s v="A"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="381"/>
     <n v="5.433045311578609"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="16"/>
+    <s v="A"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="382"/>
     <n v="5.1410127558801006"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="5"/>
+    <s v="A"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="383"/>
     <n v="3.2088049576380495"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="13"/>
+    <s v="A"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="384"/>
     <n v="3.0406018025693204"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="10"/>
+    <s v="A"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="385"/>
     <n v="6.1146848729882999"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="15"/>
+    <s v="B"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="386"/>
     <n v="3.6388141581597067"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="18"/>
+    <s v="B"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="387"/>
     <n v="5.1070266147132042"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="16"/>
+    <s v="B"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="388"/>
     <n v="5.5640869205083776"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="0"/>
+    <s v="B"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="389"/>
     <n v="7.9725008320497874"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="19"/>
+    <s v="B"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="390"/>
     <n v="4.769786946764583"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="19"/>
+    <s v="C"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="391"/>
     <n v="5.1837059410749511"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="10"/>
+    <s v="C"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="392"/>
     <n v="1.4513803367774103"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="14"/>
+    <s v="C"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="393"/>
     <n v="8.0333764791138051"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="13"/>
+    <s v="C"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="394"/>
     <n v="6.2815138461735325"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="2"/>
+    <s v="D"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="395"/>
     <n v="2.5188339038448779"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="10"/>
+    <s v="D"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="396"/>
     <n v="5.2223008784210183"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="14"/>
+    <s v="E"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="397"/>
     <n v="-3.0027219106427694E-2"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="8"/>
+    <s v="A"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="398"/>
     <n v="6.3844123074349834"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="5"/>
+    <s v="A"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="399"/>
     <n v="3.04734377531407"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="8"/>
+    <s v="A"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="400"/>
     <n v="8.0921477135520092"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="14"/>
+    <s v="A"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="401"/>
     <n v="4.281853987221643"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="11"/>
+    <s v="A"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="402"/>
     <n v="2.1110089155379388"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="10"/>
+    <s v="A"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="403"/>
     <n v="5.9349254543956205"/>
     <s v="B"/>
     <s v="F"/>
+    <s v="A"/>
     <x v="3"/>
   </r>
   <r>
@@ -4720,279 +5126,319 @@
     <n v="2.1114058492332806"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="18"/>
+    <s v="A"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="405"/>
     <n v="7.6634790633818524"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="9"/>
+    <s v="A"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="406"/>
     <n v="3.9864216448976353"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="18"/>
+    <s v="B"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="407"/>
     <n v="7.991814730548402"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="8"/>
+    <s v="B"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="408"/>
     <n v="3.7958178075647395"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="1"/>
+    <s v="B"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="409"/>
     <n v="4.9518925663948972"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="16"/>
+    <s v="B"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="410"/>
     <n v="7.7456050420354634"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="16"/>
+    <s v="B"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="411"/>
     <n v="7.5515970542419453"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="13"/>
+    <s v="C"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="412"/>
     <n v="2.676839552757754"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="4"/>
+    <s v="C"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="413"/>
     <n v="5.7864768616850109"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="13"/>
+    <s v="C"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="414"/>
     <n v="3.4196393923164443"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="18"/>
+    <s v="C"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="415"/>
     <n v="3.3213888344454512"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="18"/>
+    <s v="D"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="416"/>
     <n v="5.3043466507320902"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="9"/>
+    <s v="D"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="417"/>
     <n v="5.1915580029634505"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="5"/>
+    <s v="A"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="418"/>
     <n v="6.2708004709158862"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="0"/>
+    <s v="A"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="419"/>
     <n v="3.9110133541717405"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="9"/>
+    <s v="A"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="420"/>
     <n v="5.1486507846643388"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="A"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="421"/>
     <n v="9.0597089946256251"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="14"/>
+    <s v="A"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="422"/>
     <n v="6.2052684306789381"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="10"/>
+    <s v="A"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="423"/>
     <n v="5.5212746780018707"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="6"/>
+    <s v="A"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="424"/>
     <n v="3.8138926743609365"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="11"/>
+    <s v="A"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="425"/>
     <n v="2.0349138741186215"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="4"/>
+    <s v="A"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="426"/>
     <n v="5.9420440508720089"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="15"/>
+    <s v="B"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="427"/>
     <n v="4.949891195456896"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="14"/>
+    <s v="B"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="428"/>
     <n v="4.9106136955255772"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="13"/>
+    <s v="B"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="429"/>
     <n v="4.553030015949898"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="7"/>
+    <s v="B"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="430"/>
     <n v="3.9843797033102941"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="9"/>
+    <s v="B"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="431"/>
     <n v="1.4956495017858749"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="7"/>
+    <s v="C"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="432"/>
     <n v="4.7230762000499205"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="1"/>
+    <s v="C"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="433"/>
     <n v="8.7089825957407321"/>
     <s v="B"/>
     <s v="F"/>
-    <x v="15"/>
+    <s v="C"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="434"/>
     <n v="4.6557950016958447"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="11"/>
+    <s v="C"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="435"/>
     <n v="5.6436280936753684"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="6"/>
+    <s v="D"/>
+    <x v="17"/>
   </r>
   <r>
     <n v="436"/>
     <n v="-0.33758162118220714"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="4"/>
+    <s v="D"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="437"/>
     <n v="5.1422927014007067"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="16"/>
+    <s v="E"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="438"/>
     <n v="5.0533044343175071E-2"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="16"/>
+    <s v="A"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="439"/>
     <n v="5.6835195684310431"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="14"/>
+    <s v="A"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="440"/>
     <n v="7.6713630344773005"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="18"/>
+    <s v="A"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="441"/>
     <n v="4.8064372194140832"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="3"/>
+    <s v="A"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="442"/>
     <n v="4.4305282351482909"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="17"/>
+    <s v="A"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="443"/>
     <n v="2.5325565414718394"/>
     <s v="B"/>
     <s v="M"/>
+    <s v="A"/>
     <x v="13"/>
   </r>
   <r>
@@ -5000,167 +5446,191 @@
     <n v="2.5880356467279553"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="A"/>
+    <x v="11"/>
   </r>
   <r>
     <n v="445"/>
     <n v="6.921344670295337"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="10"/>
+    <s v="A"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="446"/>
     <n v="7.3971687246464075"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="8"/>
+    <s v="A"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="447"/>
     <n v="6.3969934151392334"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="11"/>
+    <s v="B"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="448"/>
     <n v="4.3541600942290488"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="B"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="449"/>
     <n v="0.77162246334629714"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="5"/>
+    <s v="B"/>
+    <x v="15"/>
   </r>
   <r>
     <n v="450"/>
     <n v="7.7859592265757716"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="15"/>
+    <s v="B"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="451"/>
     <n v="5.4769260687927712"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="14"/>
+    <s v="B"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="452"/>
     <n v="3.6943933410832459"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="7"/>
+    <s v="C"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="453"/>
     <n v="3.3110953687067814"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="9"/>
+    <s v="C"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="454"/>
     <n v="7.3028806951552019"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="18"/>
+    <s v="C"/>
+    <x v="19"/>
   </r>
   <r>
     <n v="455"/>
     <n v="2.7089211319488924"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="16"/>
+    <s v="C"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="456"/>
     <n v="8.5798085633338328"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="9"/>
+    <s v="D"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="457"/>
     <n v="0.25275184998090605"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="1"/>
+    <s v="D"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="458"/>
     <n v="3.8731516583524286"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="3"/>
+    <s v="E"/>
+    <x v="12"/>
   </r>
   <r>
     <n v="459"/>
     <n v="4.1740062495521197"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="15"/>
+    <s v="A"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="460"/>
     <n v="3.0565165437459871"/>
     <s v="B"/>
     <s v="F"/>
-    <x v="16"/>
+    <s v="A"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="461"/>
     <n v="5.368239260749867"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="16"/>
+    <s v="A"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="462"/>
     <n v="4.3108664035620601"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="2"/>
+    <s v="A"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="463"/>
     <n v="5.5214566996039807"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="15"/>
+    <s v="A"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="464"/>
     <n v="7.502069141294899"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="3"/>
+    <s v="A"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="465"/>
     <n v="0.71932087043814796"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="15"/>
+    <s v="A"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="466"/>
     <n v="5.0981301182440237"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="16"/>
+    <s v="A"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="467"/>
     <n v="4.5576960061699365"/>
     <s v="B"/>
     <s v="M"/>
+    <s v="A"/>
     <x v="17"/>
   </r>
   <r>
@@ -5168,48 +5638,55 @@
     <n v="4.8082594011566648"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="17"/>
+    <s v="B"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="469"/>
     <n v="5.6496350914342193"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="11"/>
+    <s v="B"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="470"/>
     <n v="3.8043401042807079"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="8"/>
+    <s v="B"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="471"/>
     <n v="5.1454645243142618"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="13"/>
+    <s v="B"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="472"/>
     <n v="6.625583593616712"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="10"/>
+    <s v="B"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="473"/>
     <n v="3.7488429554972238"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="9"/>
+    <s v="C"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="474"/>
     <n v="3.7124370718380275"/>
     <s v="A"/>
     <s v="M"/>
+    <s v="C"/>
     <x v="5"/>
   </r>
   <r>
@@ -5217,34 +5694,39 @@
     <n v="4.4754003784523579"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="17"/>
+    <s v="C"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="476"/>
     <n v="5.9104928849055733"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="6"/>
+    <s v="C"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="477"/>
     <n v="5.4445976796129409"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="8"/>
+    <s v="D"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="478"/>
     <n v="3.4877918651056206"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="8"/>
+    <s v="D"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="479"/>
     <n v="6.2801297196129466"/>
     <s v="B"/>
     <s v="M"/>
+    <s v="E"/>
     <x v="5"/>
   </r>
   <r>
@@ -5252,55 +5734,63 @@
     <n v="6.4461608001905262"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="14"/>
+    <s v="A"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="481"/>
     <n v="6.1519326291854162"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="15"/>
+    <s v="A"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="482"/>
     <n v="2.8118476137307917"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="10"/>
+    <s v="A"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="483"/>
     <n v="5.5802304425062665"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="13"/>
+    <s v="A"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="484"/>
     <n v="8.1469749841802575"/>
     <s v="A"/>
     <s v="M"/>
-    <x v="3"/>
+    <s v="A"/>
+    <x v="13"/>
   </r>
   <r>
     <n v="485"/>
     <n v="3.7283445861074518"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="13"/>
+    <s v="A"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="486"/>
     <n v="8.3899080371278068"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="1"/>
+    <s v="A"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="487"/>
     <n v="5.5712690889269307"/>
     <s v="A"/>
     <s v="F"/>
+    <s v="A"/>
     <x v="18"/>
   </r>
   <r>
@@ -5308,131 +5798,145 @@
     <n v="3.1759084744692458"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="0"/>
+    <s v="A"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="489"/>
     <n v="7.0327316107819122"/>
     <s v="A"/>
     <s v="F"/>
-    <x v="16"/>
+    <s v="B"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="490"/>
     <n v="4.8686323249410366"/>
     <s v="B"/>
     <s v="F"/>
-    <x v="11"/>
+    <s v="B"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="491"/>
     <n v="6.7996117481288492"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="18"/>
+    <s v="B"/>
+    <x v="14"/>
   </r>
   <r>
     <n v="492"/>
     <n v="4.5712750512304412"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="16"/>
+    <s v="B"/>
+    <x v="10"/>
   </r>
   <r>
     <n v="493"/>
     <n v="7.7550795548674634"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="7"/>
+    <s v="B"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="494"/>
     <n v="6.5033901582080738"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="4"/>
+    <s v="C"/>
+    <x v="16"/>
   </r>
   <r>
     <n v="495"/>
     <n v="4.6073345991606178"/>
     <s v="C"/>
     <s v="F"/>
-    <x v="2"/>
+    <s v="C"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="496"/>
     <n v="5.9869256211578676"/>
     <s v="C"/>
     <s v="M"/>
-    <x v="7"/>
+    <s v="C"/>
+    <x v="18"/>
   </r>
   <r>
     <n v="497"/>
     <n v="2.7981940641782046"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="17"/>
+    <s v="C"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="498"/>
     <n v="2.6882057037176095"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="7"/>
+    <s v="D"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="499"/>
     <n v="3.2207524681222814"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="6"/>
+    <s v="D"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="500"/>
     <n v="4.3410108675511472"/>
     <s v="B"/>
     <s v="M"/>
-    <x v="12"/>
+    <s v="E"/>
+    <x v="11"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:C22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
+  <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="21">
-        <item x="8"/>
-        <item x="13"/>
+        <item x="12"/>
         <item x="17"/>
         <item x="10"/>
+        <item x="14"/>
+        <item x="19"/>
         <item x="15"/>
-        <item x="14"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="1"/>
         <item x="18"/>
-        <item x="1"/>
+        <item x="2"/>
         <item x="7"/>
-        <item x="2"/>
+        <item x="11"/>
         <item x="4"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="12"/>
-        <item x="19"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="16"/>
         <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="4"/>
+    <field x="5"/>
   </rowFields>
   <rowItems count="21">
     <i>
@@ -5810,7 +6314,7 @@
   <dimension ref="A1:I501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5862,7 +6366,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="6">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>16</v>
@@ -5888,7 +6392,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>10</v>
@@ -5914,7 +6418,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>21</v>
@@ -5940,7 +6444,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>22</v>
@@ -5966,7 +6470,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>23</v>
@@ -5992,7 +6496,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>24</v>
@@ -6018,7 +6522,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>25</v>
@@ -6050,7 +6554,7 @@
         <v>15</v>
       </c>
       <c r="I9" s="6">
-        <v>9.6314500000000081E-2</v>
+        <v>0.5361798999999996</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -6070,13 +6574,13 @@
         <v>5</v>
       </c>
       <c r="F10" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="6">
-        <v>0.11741599999999952</v>
+        <v>0.13826260000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -6096,7 +6600,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -6116,7 +6620,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="6">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -6136,7 +6640,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -6156,7 +6660,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -6176,7 +6680,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -6216,7 +6720,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="6">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6236,7 +6740,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="6">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6256,7 +6760,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6276,7 +6780,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6296,7 +6800,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="6">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6316,7 +6820,7 @@
         <v>20</v>
       </c>
       <c r="F22" s="6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -6336,7 +6840,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="6">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -6356,7 +6860,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="6">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -6376,7 +6880,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="6">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6396,7 +6900,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6416,7 +6920,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6436,7 +6940,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6456,7 +6960,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6476,7 +6980,7 @@
         <v>5</v>
       </c>
       <c r="F30" s="6">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -6496,7 +7000,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -6516,7 +7020,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -6536,7 +7040,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -6556,7 +7060,7 @@
         <v>6</v>
       </c>
       <c r="F34" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6576,7 +7080,7 @@
         <v>6</v>
       </c>
       <c r="F35" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -6596,7 +7100,7 @@
         <v>6</v>
       </c>
       <c r="F36" s="6">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -6616,7 +7120,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="6">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6636,7 +7140,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="6">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -6656,7 +7160,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -6676,7 +7180,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="6">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -6696,7 +7200,7 @@
         <v>19</v>
       </c>
       <c r="F41" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6716,7 +7220,7 @@
         <v>19</v>
       </c>
       <c r="F42" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6736,7 +7240,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -6756,7 +7260,7 @@
         <v>5</v>
       </c>
       <c r="F44" s="6">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6776,7 +7280,7 @@
         <v>5</v>
       </c>
       <c r="F45" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -6796,7 +7300,7 @@
         <v>5</v>
       </c>
       <c r="F46" s="6">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -6816,7 +7320,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6836,7 +7340,7 @@
         <v>5</v>
       </c>
       <c r="F48" s="6">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -6876,7 +7380,7 @@
         <v>5</v>
       </c>
       <c r="F50" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -6896,7 +7400,7 @@
         <v>5</v>
       </c>
       <c r="F51" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -6916,7 +7420,7 @@
         <v>6</v>
       </c>
       <c r="F52" s="6">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -6936,7 +7440,7 @@
         <v>6</v>
       </c>
       <c r="F53" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -6956,7 +7460,7 @@
         <v>6</v>
       </c>
       <c r="F54" s="6">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -6976,7 +7480,7 @@
         <v>6</v>
       </c>
       <c r="F55" s="6">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -6996,7 +7500,7 @@
         <v>6</v>
       </c>
       <c r="F56" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -7016,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="F57" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -7036,7 +7540,7 @@
         <v>7</v>
       </c>
       <c r="F58" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -7056,7 +7560,7 @@
         <v>7</v>
       </c>
       <c r="F59" s="6">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -7076,7 +7580,7 @@
         <v>7</v>
       </c>
       <c r="F60" s="6">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -7096,7 +7600,7 @@
         <v>19</v>
       </c>
       <c r="F61" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -7116,7 +7620,7 @@
         <v>19</v>
       </c>
       <c r="F62" s="6">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -7156,7 +7660,7 @@
         <v>5</v>
       </c>
       <c r="F64" s="6">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -7176,7 +7680,7 @@
         <v>5</v>
       </c>
       <c r="F65" s="6">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -7196,7 +7700,7 @@
         <v>5</v>
       </c>
       <c r="F66" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -7216,7 +7720,7 @@
         <v>5</v>
       </c>
       <c r="F67" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -7236,7 +7740,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -7256,7 +7760,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="6">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -7276,7 +7780,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="6">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -7296,7 +7800,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -7316,7 +7820,7 @@
         <v>5</v>
       </c>
       <c r="F72" s="6">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -7336,7 +7840,7 @@
         <v>6</v>
       </c>
       <c r="F73" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -7356,7 +7860,7 @@
         <v>6</v>
       </c>
       <c r="F74" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -7376,7 +7880,7 @@
         <v>6</v>
       </c>
       <c r="F75" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -7396,7 +7900,7 @@
         <v>6</v>
       </c>
       <c r="F76" s="6">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -7416,7 +7920,7 @@
         <v>6</v>
       </c>
       <c r="F77" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -7456,7 +7960,7 @@
         <v>7</v>
       </c>
       <c r="F79" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -7476,7 +7980,7 @@
         <v>7</v>
       </c>
       <c r="F80" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -7496,7 +8000,7 @@
         <v>7</v>
       </c>
       <c r="F81" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -7516,7 +8020,7 @@
         <v>19</v>
       </c>
       <c r="F82" s="6">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -7536,7 +8040,7 @@
         <v>19</v>
       </c>
       <c r="F83" s="6">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -7576,7 +8080,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="6">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -7596,7 +8100,7 @@
         <v>5</v>
       </c>
       <c r="F86" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -7616,7 +8120,7 @@
         <v>5</v>
       </c>
       <c r="F87" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -7636,7 +8140,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="6">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -7656,7 +8160,7 @@
         <v>5</v>
       </c>
       <c r="F89" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -7676,7 +8180,7 @@
         <v>5</v>
       </c>
       <c r="F90" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -7696,7 +8200,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="6">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -7716,7 +8220,7 @@
         <v>5</v>
       </c>
       <c r="F92" s="6">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -7736,7 +8240,7 @@
         <v>5</v>
       </c>
       <c r="F93" s="6">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -7756,7 +8260,7 @@
         <v>6</v>
       </c>
       <c r="F94" s="6">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -7776,7 +8280,7 @@
         <v>6</v>
       </c>
       <c r="F95" s="6">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -7796,7 +8300,7 @@
         <v>6</v>
       </c>
       <c r="F96" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -7816,7 +8320,7 @@
         <v>6</v>
       </c>
       <c r="F97" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -7836,7 +8340,7 @@
         <v>6</v>
       </c>
       <c r="F98" s="6">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -7856,7 +8360,7 @@
         <v>7</v>
       </c>
       <c r="F99" s="6">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -7876,7 +8380,7 @@
         <v>7</v>
       </c>
       <c r="F100" s="6">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -7916,7 +8420,7 @@
         <v>7</v>
       </c>
       <c r="F102" s="6">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -7956,7 +8460,7 @@
         <v>19</v>
       </c>
       <c r="F104" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -7996,7 +8500,7 @@
         <v>5</v>
       </c>
       <c r="F106" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -8016,7 +8520,7 @@
         <v>5</v>
       </c>
       <c r="F107" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -8036,7 +8540,7 @@
         <v>5</v>
       </c>
       <c r="F108" s="6">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -8056,7 +8560,7 @@
         <v>5</v>
       </c>
       <c r="F109" s="6">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -8076,7 +8580,7 @@
         <v>5</v>
       </c>
       <c r="F110" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -8096,7 +8600,7 @@
         <v>5</v>
       </c>
       <c r="F111" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -8116,7 +8620,7 @@
         <v>5</v>
       </c>
       <c r="F112" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -8136,7 +8640,7 @@
         <v>5</v>
       </c>
       <c r="F113" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -8156,7 +8660,7 @@
         <v>5</v>
       </c>
       <c r="F114" s="6">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -8176,7 +8680,7 @@
         <v>6</v>
       </c>
       <c r="F115" s="6">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -8196,7 +8700,7 @@
         <v>6</v>
       </c>
       <c r="F116" s="6">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -8216,7 +8720,7 @@
         <v>6</v>
       </c>
       <c r="F117" s="6">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -8236,7 +8740,7 @@
         <v>6</v>
       </c>
       <c r="F118" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -8256,7 +8760,7 @@
         <v>6</v>
       </c>
       <c r="F119" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -8276,7 +8780,7 @@
         <v>7</v>
       </c>
       <c r="F120" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -8296,7 +8800,7 @@
         <v>7</v>
       </c>
       <c r="F121" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -8316,7 +8820,7 @@
         <v>7</v>
       </c>
       <c r="F122" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -8336,7 +8840,7 @@
         <v>7</v>
       </c>
       <c r="F123" s="6">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -8356,7 +8860,7 @@
         <v>19</v>
       </c>
       <c r="F124" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -8376,7 +8880,7 @@
         <v>19</v>
       </c>
       <c r="F125" s="6">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -8396,7 +8900,7 @@
         <v>20</v>
       </c>
       <c r="F126" s="6">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -8416,7 +8920,7 @@
         <v>5</v>
       </c>
       <c r="F127" s="6">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -8436,7 +8940,7 @@
         <v>5</v>
       </c>
       <c r="F128" s="6">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -8476,7 +8980,7 @@
         <v>5</v>
       </c>
       <c r="F130" s="6">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -8496,7 +9000,7 @@
         <v>5</v>
       </c>
       <c r="F131" s="6">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -8516,7 +9020,7 @@
         <v>5</v>
       </c>
       <c r="F132" s="6">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -8536,7 +9040,7 @@
         <v>5</v>
       </c>
       <c r="F133" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -8556,7 +9060,7 @@
         <v>5</v>
       </c>
       <c r="F134" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -8596,7 +9100,7 @@
         <v>6</v>
       </c>
       <c r="F136" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -8616,7 +9120,7 @@
         <v>6</v>
       </c>
       <c r="F137" s="6">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -8636,7 +9140,7 @@
         <v>6</v>
       </c>
       <c r="F138" s="6">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -8656,7 +9160,7 @@
         <v>6</v>
       </c>
       <c r="F139" s="6">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -8676,7 +9180,7 @@
         <v>6</v>
       </c>
       <c r="F140" s="6">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -8696,7 +9200,7 @@
         <v>7</v>
       </c>
       <c r="F141" s="6">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -8716,7 +9220,7 @@
         <v>7</v>
       </c>
       <c r="F142" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -8736,7 +9240,7 @@
         <v>7</v>
       </c>
       <c r="F143" s="6">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -8756,7 +9260,7 @@
         <v>7</v>
       </c>
       <c r="F144" s="6">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -8776,7 +9280,7 @@
         <v>19</v>
       </c>
       <c r="F145" s="6">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -8796,7 +9300,7 @@
         <v>19</v>
       </c>
       <c r="F146" s="6">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -8816,7 +9320,7 @@
         <v>20</v>
       </c>
       <c r="F147" s="6">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -8836,7 +9340,7 @@
         <v>5</v>
       </c>
       <c r="F148" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -8856,7 +9360,7 @@
         <v>5</v>
       </c>
       <c r="F149" s="6">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -8876,7 +9380,7 @@
         <v>5</v>
       </c>
       <c r="F150" s="6">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -8896,7 +9400,7 @@
         <v>5</v>
       </c>
       <c r="F151" s="6">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -8916,7 +9420,7 @@
         <v>5</v>
       </c>
       <c r="F152" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -8936,7 +9440,7 @@
         <v>5</v>
       </c>
       <c r="F153" s="6">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -8956,7 +9460,7 @@
         <v>5</v>
       </c>
       <c r="F154" s="6">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -8976,7 +9480,7 @@
         <v>5</v>
       </c>
       <c r="F155" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -8996,7 +9500,7 @@
         <v>5</v>
       </c>
       <c r="F156" s="6">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -9016,7 +9520,7 @@
         <v>6</v>
       </c>
       <c r="F157" s="6">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -9036,7 +9540,7 @@
         <v>6</v>
       </c>
       <c r="F158" s="6">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -9056,7 +9560,7 @@
         <v>6</v>
       </c>
       <c r="F159" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -9096,7 +9600,7 @@
         <v>6</v>
       </c>
       <c r="F161" s="6">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -9116,7 +9620,7 @@
         <v>7</v>
       </c>
       <c r="F162" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -9136,7 +9640,7 @@
         <v>7</v>
       </c>
       <c r="F163" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -9156,7 +9660,7 @@
         <v>7</v>
       </c>
       <c r="F164" s="6">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -9176,7 +9680,7 @@
         <v>7</v>
       </c>
       <c r="F165" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -9196,7 +9700,7 @@
         <v>19</v>
       </c>
       <c r="F166" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -9216,7 +9720,7 @@
         <v>19</v>
       </c>
       <c r="F167" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -9236,7 +9740,7 @@
         <v>5</v>
       </c>
       <c r="F168" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -9256,7 +9760,7 @@
         <v>5</v>
       </c>
       <c r="F169" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -9276,7 +9780,7 @@
         <v>5</v>
       </c>
       <c r="F170" s="6">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -9296,7 +9800,7 @@
         <v>5</v>
       </c>
       <c r="F171" s="6">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -9316,7 +9820,7 @@
         <v>5</v>
       </c>
       <c r="F172" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -9336,7 +9840,7 @@
         <v>5</v>
       </c>
       <c r="F173" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -9356,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="F174" s="6">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -9376,7 +9880,7 @@
         <v>5</v>
       </c>
       <c r="F175" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -9396,7 +9900,7 @@
         <v>5</v>
       </c>
       <c r="F176" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -9416,7 +9920,7 @@
         <v>6</v>
       </c>
       <c r="F177" s="6">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -9456,7 +9960,7 @@
         <v>6</v>
       </c>
       <c r="F179" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -9476,7 +9980,7 @@
         <v>6</v>
       </c>
       <c r="F180" s="6">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -9496,7 +10000,7 @@
         <v>6</v>
       </c>
       <c r="F181" s="6">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -9516,7 +10020,7 @@
         <v>7</v>
       </c>
       <c r="F182" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -9536,7 +10040,7 @@
         <v>7</v>
       </c>
       <c r="F183" s="6">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -9556,7 +10060,7 @@
         <v>7</v>
       </c>
       <c r="F184" s="6">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -9576,7 +10080,7 @@
         <v>7</v>
       </c>
       <c r="F185" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -9596,7 +10100,7 @@
         <v>19</v>
       </c>
       <c r="F186" s="6">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -9616,7 +10120,7 @@
         <v>19</v>
       </c>
       <c r="F187" s="6">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -9636,7 +10140,7 @@
         <v>20</v>
       </c>
       <c r="F188" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -9656,7 +10160,7 @@
         <v>5</v>
       </c>
       <c r="F189" s="6">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -9676,7 +10180,7 @@
         <v>5</v>
       </c>
       <c r="F190" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -9696,7 +10200,7 @@
         <v>5</v>
       </c>
       <c r="F191" s="6">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -9716,7 +10220,7 @@
         <v>5</v>
       </c>
       <c r="F192" s="6">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -9736,7 +10240,7 @@
         <v>5</v>
       </c>
       <c r="F193" s="6">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -9756,7 +10260,7 @@
         <v>5</v>
       </c>
       <c r="F194" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -9776,7 +10280,7 @@
         <v>5</v>
       </c>
       <c r="F195" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -9796,7 +10300,7 @@
         <v>5</v>
       </c>
       <c r="F196" s="6">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -9816,7 +10320,7 @@
         <v>5</v>
       </c>
       <c r="F197" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -9836,7 +10340,7 @@
         <v>6</v>
       </c>
       <c r="F198" s="6">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -9856,7 +10360,7 @@
         <v>6</v>
       </c>
       <c r="F199" s="6">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -9876,7 +10380,7 @@
         <v>6</v>
       </c>
       <c r="F200" s="6">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -9896,7 +10400,7 @@
         <v>6</v>
       </c>
       <c r="F201" s="6">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -9916,7 +10420,7 @@
         <v>6</v>
       </c>
       <c r="F202" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -9936,7 +10440,7 @@
         <v>7</v>
       </c>
       <c r="F203" s="6">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -9956,7 +10460,7 @@
         <v>7</v>
       </c>
       <c r="F204" s="6">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -9976,7 +10480,7 @@
         <v>7</v>
       </c>
       <c r="F205" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -9996,7 +10500,7 @@
         <v>7</v>
       </c>
       <c r="F206" s="6">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -10016,7 +10520,7 @@
         <v>19</v>
       </c>
       <c r="F207" s="6">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -10036,7 +10540,7 @@
         <v>19</v>
       </c>
       <c r="F208" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -10056,7 +10560,7 @@
         <v>20</v>
       </c>
       <c r="F209" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -10076,7 +10580,7 @@
         <v>5</v>
       </c>
       <c r="F210" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -10096,7 +10600,7 @@
         <v>5</v>
       </c>
       <c r="F211" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -10116,7 +10620,7 @@
         <v>5</v>
       </c>
       <c r="F212" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -10136,7 +10640,7 @@
         <v>5</v>
       </c>
       <c r="F213" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -10156,7 +10660,7 @@
         <v>5</v>
       </c>
       <c r="F214" s="6">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -10176,7 +10680,7 @@
         <v>5</v>
       </c>
       <c r="F215" s="6">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -10196,7 +10700,7 @@
         <v>5</v>
       </c>
       <c r="F216" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -10216,7 +10720,7 @@
         <v>5</v>
       </c>
       <c r="F217" s="6">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -10236,7 +10740,7 @@
         <v>5</v>
       </c>
       <c r="F218" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -10256,7 +10760,7 @@
         <v>6</v>
       </c>
       <c r="F219" s="6">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -10276,7 +10780,7 @@
         <v>6</v>
       </c>
       <c r="F220" s="6">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -10296,7 +10800,7 @@
         <v>6</v>
       </c>
       <c r="F221" s="6">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -10316,7 +10820,7 @@
         <v>6</v>
       </c>
       <c r="F222" s="6">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -10336,7 +10840,7 @@
         <v>6</v>
       </c>
       <c r="F223" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -10356,7 +10860,7 @@
         <v>7</v>
       </c>
       <c r="F224" s="6">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -10376,7 +10880,7 @@
         <v>7</v>
       </c>
       <c r="F225" s="6">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -10396,7 +10900,7 @@
         <v>7</v>
       </c>
       <c r="F226" s="6">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -10416,7 +10920,7 @@
         <v>7</v>
       </c>
       <c r="F227" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -10436,7 +10940,7 @@
         <v>19</v>
       </c>
       <c r="F228" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -10456,7 +10960,7 @@
         <v>19</v>
       </c>
       <c r="F229" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -10476,7 +10980,7 @@
         <v>20</v>
       </c>
       <c r="F230" s="6">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -10496,7 +11000,7 @@
         <v>5</v>
       </c>
       <c r="F231" s="6">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -10516,7 +11020,7 @@
         <v>5</v>
       </c>
       <c r="F232" s="6">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -10536,7 +11040,7 @@
         <v>5</v>
       </c>
       <c r="F233" s="6">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -10556,7 +11060,7 @@
         <v>5</v>
       </c>
       <c r="F234" s="6">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -10576,7 +11080,7 @@
         <v>5</v>
       </c>
       <c r="F235" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -10596,7 +11100,7 @@
         <v>5</v>
       </c>
       <c r="F236" s="6">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -10616,7 +11120,7 @@
         <v>5</v>
       </c>
       <c r="F237" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -10636,7 +11140,7 @@
         <v>5</v>
       </c>
       <c r="F238" s="6">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -10656,7 +11160,7 @@
         <v>5</v>
       </c>
       <c r="F239" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -10676,7 +11180,7 @@
         <v>6</v>
       </c>
       <c r="F240" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -10696,7 +11200,7 @@
         <v>6</v>
       </c>
       <c r="F241" s="6">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -10716,7 +11220,7 @@
         <v>6</v>
       </c>
       <c r="F242" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -10736,7 +11240,7 @@
         <v>6</v>
       </c>
       <c r="F243" s="6">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -10756,7 +11260,7 @@
         <v>6</v>
       </c>
       <c r="F244" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -10776,7 +11280,7 @@
         <v>7</v>
       </c>
       <c r="F245" s="6">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -10796,7 +11300,7 @@
         <v>7</v>
       </c>
       <c r="F246" s="6">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -10816,7 +11320,7 @@
         <v>7</v>
       </c>
       <c r="F247" s="6">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -10836,7 +11340,7 @@
         <v>7</v>
       </c>
       <c r="F248" s="6">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -10856,7 +11360,7 @@
         <v>19</v>
       </c>
       <c r="F249" s="6">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -10876,7 +11380,7 @@
         <v>19</v>
       </c>
       <c r="F250" s="6">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -10896,7 +11400,7 @@
         <v>20</v>
       </c>
       <c r="F251" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -10916,7 +11420,7 @@
         <v>5</v>
       </c>
       <c r="F252" s="6">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -10936,7 +11440,7 @@
         <v>5</v>
       </c>
       <c r="F253" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -10956,7 +11460,7 @@
         <v>5</v>
       </c>
       <c r="F254" s="6">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -10976,7 +11480,7 @@
         <v>5</v>
       </c>
       <c r="F255" s="6">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -10996,7 +11500,7 @@
         <v>5</v>
       </c>
       <c r="F256" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -11016,7 +11520,7 @@
         <v>5</v>
       </c>
       <c r="F257" s="6">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -11036,7 +11540,7 @@
         <v>5</v>
       </c>
       <c r="F258" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -11056,7 +11560,7 @@
         <v>5</v>
       </c>
       <c r="F259" s="6">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -11076,7 +11580,7 @@
         <v>5</v>
       </c>
       <c r="F260" s="6">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -11096,7 +11600,7 @@
         <v>6</v>
       </c>
       <c r="F261" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -11116,7 +11620,7 @@
         <v>6</v>
       </c>
       <c r="F262" s="6">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -11156,7 +11660,7 @@
         <v>6</v>
       </c>
       <c r="F264" s="6">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -11176,7 +11680,7 @@
         <v>6</v>
       </c>
       <c r="F265" s="6">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -11196,7 +11700,7 @@
         <v>7</v>
       </c>
       <c r="F266" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -11216,7 +11720,7 @@
         <v>7</v>
       </c>
       <c r="F267" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -11236,7 +11740,7 @@
         <v>7</v>
       </c>
       <c r="F268" s="6">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -11256,7 +11760,7 @@
         <v>7</v>
       </c>
       <c r="F269" s="6">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -11276,7 +11780,7 @@
         <v>19</v>
       </c>
       <c r="F270" s="6">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -11316,7 +11820,7 @@
         <v>20</v>
       </c>
       <c r="F272" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -11336,7 +11840,7 @@
         <v>5</v>
       </c>
       <c r="F273" s="6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -11356,7 +11860,7 @@
         <v>5</v>
       </c>
       <c r="F274" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -11376,7 +11880,7 @@
         <v>5</v>
       </c>
       <c r="F275" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -11396,7 +11900,7 @@
         <v>5</v>
       </c>
       <c r="F276" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -11416,7 +11920,7 @@
         <v>5</v>
       </c>
       <c r="F277" s="6">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -11436,7 +11940,7 @@
         <v>5</v>
       </c>
       <c r="F278" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -11456,7 +11960,7 @@
         <v>5</v>
       </c>
       <c r="F279" s="6">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -11476,7 +11980,7 @@
         <v>5</v>
       </c>
       <c r="F280" s="6">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -11496,7 +12000,7 @@
         <v>5</v>
       </c>
       <c r="F281" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -11536,7 +12040,7 @@
         <v>6</v>
       </c>
       <c r="F283" s="6">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -11556,7 +12060,7 @@
         <v>6</v>
       </c>
       <c r="F284" s="6">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -11576,7 +12080,7 @@
         <v>6</v>
       </c>
       <c r="F285" s="6">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -11596,7 +12100,7 @@
         <v>6</v>
       </c>
       <c r="F286" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -11636,7 +12140,7 @@
         <v>7</v>
       </c>
       <c r="F288" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -11656,7 +12160,7 @@
         <v>7</v>
       </c>
       <c r="F289" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -11676,7 +12180,7 @@
         <v>7</v>
       </c>
       <c r="F290" s="6">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -11696,7 +12200,7 @@
         <v>19</v>
       </c>
       <c r="F291" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -11716,7 +12220,7 @@
         <v>19</v>
       </c>
       <c r="F292" s="6">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -11736,7 +12240,7 @@
         <v>5</v>
       </c>
       <c r="F293" s="6">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -11756,7 +12260,7 @@
         <v>5</v>
       </c>
       <c r="F294" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -11776,7 +12280,7 @@
         <v>5</v>
       </c>
       <c r="F295" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -11796,7 +12300,7 @@
         <v>5</v>
       </c>
       <c r="F296" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -11816,7 +12320,7 @@
         <v>5</v>
       </c>
       <c r="F297" s="6">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -11836,7 +12340,7 @@
         <v>5</v>
       </c>
       <c r="F298" s="6">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -11856,7 +12360,7 @@
         <v>5</v>
       </c>
       <c r="F299" s="6">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -11876,7 +12380,7 @@
         <v>5</v>
       </c>
       <c r="F300" s="6">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -11896,7 +12400,7 @@
         <v>5</v>
       </c>
       <c r="F301" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -11936,7 +12440,7 @@
         <v>6</v>
       </c>
       <c r="F303" s="6">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -11956,7 +12460,7 @@
         <v>6</v>
       </c>
       <c r="F304" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -11976,7 +12480,7 @@
         <v>6</v>
       </c>
       <c r="F305" s="6">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -11996,7 +12500,7 @@
         <v>6</v>
       </c>
       <c r="F306" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -12016,7 +12520,7 @@
         <v>7</v>
       </c>
       <c r="F307" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -12036,7 +12540,7 @@
         <v>7</v>
       </c>
       <c r="F308" s="6">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -12056,7 +12560,7 @@
         <v>7</v>
       </c>
       <c r="F309" s="6">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -12076,7 +12580,7 @@
         <v>7</v>
       </c>
       <c r="F310" s="6">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -12096,7 +12600,7 @@
         <v>19</v>
       </c>
       <c r="F311" s="6">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -12116,7 +12620,7 @@
         <v>19</v>
       </c>
       <c r="F312" s="6">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -12136,7 +12640,7 @@
         <v>20</v>
       </c>
       <c r="F313" s="6">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -12156,7 +12660,7 @@
         <v>5</v>
       </c>
       <c r="F314" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -12176,7 +12680,7 @@
         <v>5</v>
       </c>
       <c r="F315" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -12196,7 +12700,7 @@
         <v>5</v>
       </c>
       <c r="F316" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -12216,7 +12720,7 @@
         <v>5</v>
       </c>
       <c r="F317" s="6">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -12236,7 +12740,7 @@
         <v>5</v>
       </c>
       <c r="F318" s="6">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -12256,7 +12760,7 @@
         <v>5</v>
       </c>
       <c r="F319" s="6">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -12276,7 +12780,7 @@
         <v>5</v>
       </c>
       <c r="F320" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -12296,7 +12800,7 @@
         <v>5</v>
       </c>
       <c r="F321" s="6">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -12316,7 +12820,7 @@
         <v>5</v>
       </c>
       <c r="F322" s="6">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -12336,7 +12840,7 @@
         <v>6</v>
       </c>
       <c r="F323" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -12356,7 +12860,7 @@
         <v>6</v>
       </c>
       <c r="F324" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -12376,7 +12880,7 @@
         <v>6</v>
       </c>
       <c r="F325" s="6">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -12396,7 +12900,7 @@
         <v>6</v>
       </c>
       <c r="F326" s="6">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -12416,7 +12920,7 @@
         <v>6</v>
       </c>
       <c r="F327" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -12436,7 +12940,7 @@
         <v>7</v>
       </c>
       <c r="F328" s="6">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -12456,7 +12960,7 @@
         <v>7</v>
       </c>
       <c r="F329" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -12476,7 +12980,7 @@
         <v>7</v>
       </c>
       <c r="F330" s="6">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -12496,7 +13000,7 @@
         <v>7</v>
       </c>
       <c r="F331" s="6">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -12516,7 +13020,7 @@
         <v>19</v>
       </c>
       <c r="F332" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -12536,7 +13040,7 @@
         <v>19</v>
       </c>
       <c r="F333" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -12556,7 +13060,7 @@
         <v>20</v>
       </c>
       <c r="F334" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -12576,7 +13080,7 @@
         <v>5</v>
       </c>
       <c r="F335" s="6">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -12596,7 +13100,7 @@
         <v>5</v>
       </c>
       <c r="F336" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -12616,7 +13120,7 @@
         <v>5</v>
       </c>
       <c r="F337" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -12636,7 +13140,7 @@
         <v>5</v>
       </c>
       <c r="F338" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -12656,7 +13160,7 @@
         <v>5</v>
       </c>
       <c r="F339" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -12676,7 +13180,7 @@
         <v>5</v>
       </c>
       <c r="F340" s="6">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -12696,7 +13200,7 @@
         <v>5</v>
       </c>
       <c r="F341" s="6">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -12716,7 +13220,7 @@
         <v>5</v>
       </c>
       <c r="F342" s="6">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -12736,7 +13240,7 @@
         <v>5</v>
       </c>
       <c r="F343" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -12756,7 +13260,7 @@
         <v>6</v>
       </c>
       <c r="F344" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -12776,7 +13280,7 @@
         <v>6</v>
       </c>
       <c r="F345" s="6">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -12796,7 +13300,7 @@
         <v>6</v>
       </c>
       <c r="F346" s="6">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -12816,7 +13320,7 @@
         <v>6</v>
       </c>
       <c r="F347" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -12836,7 +13340,7 @@
         <v>6</v>
       </c>
       <c r="F348" s="6">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -12876,7 +13380,7 @@
         <v>7</v>
       </c>
       <c r="F350" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -12896,7 +13400,7 @@
         <v>7</v>
       </c>
       <c r="F351" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -12936,7 +13440,7 @@
         <v>19</v>
       </c>
       <c r="F353" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -12956,7 +13460,7 @@
         <v>19</v>
       </c>
       <c r="F354" s="6">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -12976,7 +13480,7 @@
         <v>20</v>
       </c>
       <c r="F355" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -12996,7 +13500,7 @@
         <v>5</v>
       </c>
       <c r="F356" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -13016,7 +13520,7 @@
         <v>5</v>
       </c>
       <c r="F357" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -13036,7 +13540,7 @@
         <v>5</v>
       </c>
       <c r="F358" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -13056,7 +13560,7 @@
         <v>5</v>
       </c>
       <c r="F359" s="6">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -13076,7 +13580,7 @@
         <v>5</v>
       </c>
       <c r="F360" s="6">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -13096,7 +13600,7 @@
         <v>5</v>
       </c>
       <c r="F361" s="6">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -13136,7 +13640,7 @@
         <v>5</v>
       </c>
       <c r="F363" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -13156,7 +13660,7 @@
         <v>5</v>
       </c>
       <c r="F364" s="6">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -13176,7 +13680,7 @@
         <v>6</v>
       </c>
       <c r="F365" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -13196,7 +13700,7 @@
         <v>6</v>
       </c>
       <c r="F366" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
@@ -13216,7 +13720,7 @@
         <v>6</v>
       </c>
       <c r="F367" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -13236,7 +13740,7 @@
         <v>6</v>
       </c>
       <c r="F368" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -13256,7 +13760,7 @@
         <v>6</v>
       </c>
       <c r="F369" s="6">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
@@ -13276,7 +13780,7 @@
         <v>7</v>
       </c>
       <c r="F370" s="6">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -13296,7 +13800,7 @@
         <v>7</v>
       </c>
       <c r="F371" s="6">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -13316,7 +13820,7 @@
         <v>7</v>
       </c>
       <c r="F372" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -13336,7 +13840,7 @@
         <v>7</v>
       </c>
       <c r="F373" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -13356,7 +13860,7 @@
         <v>19</v>
       </c>
       <c r="F374" s="6">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -13376,7 +13880,7 @@
         <v>19</v>
       </c>
       <c r="F375" s="6">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -13396,7 +13900,7 @@
         <v>20</v>
       </c>
       <c r="F376" s="6">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -13416,7 +13920,7 @@
         <v>5</v>
       </c>
       <c r="F377" s="6">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -13436,7 +13940,7 @@
         <v>5</v>
       </c>
       <c r="F378" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
@@ -13456,7 +13960,7 @@
         <v>5</v>
       </c>
       <c r="F379" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -13476,7 +13980,7 @@
         <v>5</v>
       </c>
       <c r="F380" s="6">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -13496,7 +14000,7 @@
         <v>5</v>
       </c>
       <c r="F381" s="6">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -13516,7 +14020,7 @@
         <v>5</v>
       </c>
       <c r="F382" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -13536,7 +14040,7 @@
         <v>5</v>
       </c>
       <c r="F383" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -13556,7 +14060,7 @@
         <v>5</v>
       </c>
       <c r="F384" s="6">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -13576,7 +14080,7 @@
         <v>5</v>
       </c>
       <c r="F385" s="6">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -13616,7 +14120,7 @@
         <v>6</v>
       </c>
       <c r="F387" s="6">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
@@ -13636,7 +14140,7 @@
         <v>6</v>
       </c>
       <c r="F388" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
@@ -13656,7 +14160,7 @@
         <v>6</v>
       </c>
       <c r="F389" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -13676,7 +14180,7 @@
         <v>6</v>
       </c>
       <c r="F390" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -13696,7 +14200,7 @@
         <v>7</v>
       </c>
       <c r="F391" s="6">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
@@ -13716,7 +14220,7 @@
         <v>7</v>
       </c>
       <c r="F392" s="6">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
@@ -13736,7 +14240,7 @@
         <v>7</v>
       </c>
       <c r="F393" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
@@ -13756,7 +14260,7 @@
         <v>7</v>
       </c>
       <c r="F394" s="6">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -13776,7 +14280,7 @@
         <v>19</v>
       </c>
       <c r="F395" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -13796,7 +14300,7 @@
         <v>19</v>
       </c>
       <c r="F396" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
@@ -13816,7 +14320,7 @@
         <v>20</v>
       </c>
       <c r="F397" s="6">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -13836,7 +14340,7 @@
         <v>5</v>
       </c>
       <c r="F398" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
@@ -13856,7 +14360,7 @@
         <v>5</v>
       </c>
       <c r="F399" s="6">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -13876,7 +14380,7 @@
         <v>5</v>
       </c>
       <c r="F400" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
@@ -13896,7 +14400,7 @@
         <v>5</v>
       </c>
       <c r="F401" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
@@ -13916,7 +14420,7 @@
         <v>5</v>
       </c>
       <c r="F402" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
@@ -13936,7 +14440,7 @@
         <v>5</v>
       </c>
       <c r="F403" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
@@ -13956,7 +14460,7 @@
         <v>5</v>
       </c>
       <c r="F404" s="6">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
@@ -13976,7 +14480,7 @@
         <v>5</v>
       </c>
       <c r="F405" s="6">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
@@ -13996,7 +14500,7 @@
         <v>5</v>
       </c>
       <c r="F406" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
@@ -14016,7 +14520,7 @@
         <v>6</v>
       </c>
       <c r="F407" s="6">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
@@ -14036,7 +14540,7 @@
         <v>6</v>
       </c>
       <c r="F408" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
@@ -14056,7 +14560,7 @@
         <v>6</v>
       </c>
       <c r="F409" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
@@ -14076,7 +14580,7 @@
         <v>6</v>
       </c>
       <c r="F410" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
@@ -14096,7 +14600,7 @@
         <v>6</v>
       </c>
       <c r="F411" s="6">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
@@ -14116,7 +14620,7 @@
         <v>7</v>
       </c>
       <c r="F412" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
@@ -14136,7 +14640,7 @@
         <v>7</v>
       </c>
       <c r="F413" s="6">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
@@ -14156,7 +14660,7 @@
         <v>7</v>
       </c>
       <c r="F414" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
@@ -14176,7 +14680,7 @@
         <v>7</v>
       </c>
       <c r="F415" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
@@ -14196,7 +14700,7 @@
         <v>19</v>
       </c>
       <c r="F416" s="6">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
@@ -14216,7 +14720,7 @@
         <v>19</v>
       </c>
       <c r="F417" s="6">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
@@ -14236,7 +14740,7 @@
         <v>5</v>
       </c>
       <c r="F418" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
@@ -14256,7 +14760,7 @@
         <v>5</v>
       </c>
       <c r="F419" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
@@ -14276,7 +14780,7 @@
         <v>5</v>
       </c>
       <c r="F420" s="6">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
@@ -14296,7 +14800,7 @@
         <v>5</v>
       </c>
       <c r="F421" s="6">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -14316,7 +14820,7 @@
         <v>5</v>
       </c>
       <c r="F422" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
@@ -14336,7 +14840,7 @@
         <v>5</v>
       </c>
       <c r="F423" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
@@ -14356,7 +14860,7 @@
         <v>5</v>
       </c>
       <c r="F424" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
@@ -14376,7 +14880,7 @@
         <v>5</v>
       </c>
       <c r="F425" s="6">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -14396,7 +14900,7 @@
         <v>5</v>
       </c>
       <c r="F426" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -14416,7 +14920,7 @@
         <v>6</v>
       </c>
       <c r="F427" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
@@ -14436,7 +14940,7 @@
         <v>6</v>
       </c>
       <c r="F428" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
@@ -14456,7 +14960,7 @@
         <v>6</v>
       </c>
       <c r="F429" s="6">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
@@ -14476,7 +14980,7 @@
         <v>6</v>
       </c>
       <c r="F430" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -14496,7 +15000,7 @@
         <v>6</v>
       </c>
       <c r="F431" s="6">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
@@ -14516,7 +15020,7 @@
         <v>7</v>
       </c>
       <c r="F432" s="6">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
@@ -14536,7 +15040,7 @@
         <v>7</v>
       </c>
       <c r="F433" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
@@ -14556,7 +15060,7 @@
         <v>7</v>
       </c>
       <c r="F434" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
@@ -14576,7 +15080,7 @@
         <v>7</v>
       </c>
       <c r="F435" s="6">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
@@ -14596,7 +15100,7 @@
         <v>19</v>
       </c>
       <c r="F436" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
@@ -14616,7 +15120,7 @@
         <v>19</v>
       </c>
       <c r="F437" s="6">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -14636,7 +15140,7 @@
         <v>20</v>
       </c>
       <c r="F438" s="6">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
@@ -14656,7 +15160,7 @@
         <v>5</v>
       </c>
       <c r="F439" s="6">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
@@ -14676,7 +15180,7 @@
         <v>5</v>
       </c>
       <c r="F440" s="6">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
@@ -14696,7 +15200,7 @@
         <v>5</v>
       </c>
       <c r="F441" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
@@ -14716,7 +15220,7 @@
         <v>5</v>
       </c>
       <c r="F442" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
@@ -14736,7 +15240,7 @@
         <v>5</v>
       </c>
       <c r="F443" s="6">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
@@ -14756,7 +15260,7 @@
         <v>5</v>
       </c>
       <c r="F444" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
@@ -14776,7 +15280,7 @@
         <v>5</v>
       </c>
       <c r="F445" s="6">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
@@ -14796,7 +15300,7 @@
         <v>5</v>
       </c>
       <c r="F446" s="6">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -14816,7 +15320,7 @@
         <v>5</v>
       </c>
       <c r="F447" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
@@ -14836,7 +15340,7 @@
         <v>6</v>
       </c>
       <c r="F448" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -14856,7 +15360,7 @@
         <v>6</v>
       </c>
       <c r="F449" s="6">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
@@ -14876,7 +15380,7 @@
         <v>6</v>
       </c>
       <c r="F450" s="6">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
@@ -14896,7 +15400,7 @@
         <v>6</v>
       </c>
       <c r="F451" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -14916,7 +15420,7 @@
         <v>6</v>
       </c>
       <c r="F452" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
@@ -14936,7 +15440,7 @@
         <v>7</v>
       </c>
       <c r="F453" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -14956,7 +15460,7 @@
         <v>7</v>
       </c>
       <c r="F454" s="6">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -14976,7 +15480,7 @@
         <v>7</v>
       </c>
       <c r="F455" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
@@ -14996,7 +15500,7 @@
         <v>7</v>
       </c>
       <c r="F456" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -15016,7 +15520,7 @@
         <v>19</v>
       </c>
       <c r="F457" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -15036,7 +15540,7 @@
         <v>19</v>
       </c>
       <c r="F458" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
@@ -15056,7 +15560,7 @@
         <v>20</v>
       </c>
       <c r="F459" s="6">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
@@ -15076,7 +15580,7 @@
         <v>5</v>
       </c>
       <c r="F460" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
@@ -15096,7 +15600,7 @@
         <v>5</v>
       </c>
       <c r="F461" s="6">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
@@ -15116,7 +15620,7 @@
         <v>5</v>
       </c>
       <c r="F462" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
@@ -15136,7 +15640,7 @@
         <v>5</v>
       </c>
       <c r="F463" s="6">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
@@ -15176,7 +15680,7 @@
         <v>5</v>
       </c>
       <c r="F465" s="6">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -15196,7 +15700,7 @@
         <v>5</v>
       </c>
       <c r="F466" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
@@ -15216,7 +15720,7 @@
         <v>5</v>
       </c>
       <c r="F467" s="6">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
@@ -15236,7 +15740,7 @@
         <v>5</v>
       </c>
       <c r="F468" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
@@ -15256,7 +15760,7 @@
         <v>6</v>
       </c>
       <c r="F469" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
@@ -15276,7 +15780,7 @@
         <v>6</v>
       </c>
       <c r="F470" s="6">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -15296,7 +15800,7 @@
         <v>6</v>
       </c>
       <c r="F471" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
@@ -15316,7 +15820,7 @@
         <v>6</v>
       </c>
       <c r="F472" s="6">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
@@ -15336,7 +15840,7 @@
         <v>6</v>
       </c>
       <c r="F473" s="6">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
@@ -15356,7 +15860,7 @@
         <v>7</v>
       </c>
       <c r="F474" s="6">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
@@ -15376,7 +15880,7 @@
         <v>7</v>
       </c>
       <c r="F475" s="6">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
@@ -15396,7 +15900,7 @@
         <v>7</v>
       </c>
       <c r="F476" s="6">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
@@ -15416,7 +15920,7 @@
         <v>7</v>
       </c>
       <c r="F477" s="6">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
@@ -15436,7 +15940,7 @@
         <v>19</v>
       </c>
       <c r="F478" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
@@ -15456,7 +15960,7 @@
         <v>19</v>
       </c>
       <c r="F479" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
@@ -15476,7 +15980,7 @@
         <v>20</v>
       </c>
       <c r="F480" s="6">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
@@ -15496,7 +16000,7 @@
         <v>5</v>
       </c>
       <c r="F481" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
@@ -15516,7 +16020,7 @@
         <v>5</v>
       </c>
       <c r="F482" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
@@ -15536,7 +16040,7 @@
         <v>5</v>
       </c>
       <c r="F483" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
@@ -15556,7 +16060,7 @@
         <v>5</v>
       </c>
       <c r="F484" s="6">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
@@ -15576,7 +16080,7 @@
         <v>5</v>
       </c>
       <c r="F485" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
@@ -15616,7 +16120,7 @@
         <v>5</v>
       </c>
       <c r="F487" s="6">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
@@ -15636,7 +16140,7 @@
         <v>5</v>
       </c>
       <c r="F488" s="6">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
@@ -15656,7 +16160,7 @@
         <v>5</v>
       </c>
       <c r="F489" s="6">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
@@ -15676,7 +16180,7 @@
         <v>6</v>
       </c>
       <c r="F490" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
@@ -15696,7 +16200,7 @@
         <v>6</v>
       </c>
       <c r="F491" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
@@ -15716,7 +16220,7 @@
         <v>6</v>
       </c>
       <c r="F492" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
@@ -15736,7 +16240,7 @@
         <v>6</v>
       </c>
       <c r="F493" s="6">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
@@ -15776,7 +16280,7 @@
         <v>7</v>
       </c>
       <c r="F495" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
@@ -15796,7 +16300,7 @@
         <v>7</v>
       </c>
       <c r="F496" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
@@ -15816,7 +16320,7 @@
         <v>7</v>
       </c>
       <c r="F497" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
@@ -15836,7 +16340,7 @@
         <v>7</v>
       </c>
       <c r="F498" s="6">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
@@ -15856,7 +16360,7 @@
         <v>19</v>
       </c>
       <c r="F499" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
@@ -15876,7 +16380,7 @@
         <v>19</v>
       </c>
       <c r="F500" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
@@ -15896,7 +16400,7 @@
         <v>20</v>
       </c>
       <c r="F501" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -15939,10 +16443,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>5.0099366802615677</v>
+        <v>5.0222193789009246</v>
       </c>
       <c r="C2" s="3">
-        <v>4.1924519890040699</v>
+        <v>4.1822517920478601</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -15950,10 +16454,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>5.0016073065034563</v>
+        <v>4.9581620259134711</v>
       </c>
       <c r="C3" s="3">
-        <v>4.2439373613874567</v>
+        <v>4.287066932331645</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -15961,10 +16465,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>4.952713775550694</v>
+        <v>5.0008762748172026</v>
       </c>
       <c r="C4" s="3">
-        <v>4.2969145369531816</v>
+        <v>4.1224369777775633</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -15972,10 +16476,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>4.9085528405476939</v>
+        <v>5.0091787924816487</v>
       </c>
       <c r="C5" s="3">
-        <v>4.0529355907714404</v>
+        <v>4.1076299710861646</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -15983,10 +16487,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>4.9269894400494394</v>
+        <v>4.9279238149781497</v>
       </c>
       <c r="C6" s="3">
-        <v>4.1418229295623945</v>
+        <v>4.2445086824581892</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -15994,10 +16498,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>5.0281898655281916</v>
+        <v>4.9508173249653238</v>
       </c>
       <c r="C7" s="3">
-        <v>4.3515120042944204</v>
+        <v>4.0865725479715422</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -16005,10 +16509,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>5.0015887831276533</v>
+        <v>4.9139260619720817</v>
       </c>
       <c r="C8" s="3">
-        <v>4.1320566369487368</v>
+        <v>4.2539423652172657</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -16016,10 +16520,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>4.9289133242902574</v>
+        <v>5.0450049654317199</v>
       </c>
       <c r="C9" s="3">
-        <v>4.1590187872089119</v>
+        <v>4.4013368821392618</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -16027,10 +16531,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>4.9336396670691371</v>
+        <v>4.9090617623363322</v>
       </c>
       <c r="C10" s="3">
-        <v>4.0485739781667673</v>
+        <v>4.0943940823153753</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -16038,10 +16542,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>5.0179135255529248</v>
+        <v>4.9147266856259977</v>
       </c>
       <c r="C11" s="3">
-        <v>4.1232159843007992</v>
+        <v>3.9148710881515285</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -16049,10 +16553,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>4.9201722496157592</v>
+        <v>5.0446193062064353</v>
       </c>
       <c r="C12" s="3">
-        <v>4.257179917064799</v>
+        <v>4.3337861997445657</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -16060,10 +16564,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>4.9713242619846403</v>
+        <v>4.9635768461588814</v>
       </c>
       <c r="C13" s="3">
-        <v>4.1566443683624881</v>
+        <v>4.1194455577893434</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -16071,10 +16575,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>4.968010915672747</v>
+        <v>4.9067422797410449</v>
       </c>
       <c r="C14" s="3">
-        <v>4.0467923360845077</v>
+        <v>4.0389371917572232</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -16082,10 +16586,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>4.9575767039328493</v>
+        <v>4.9267084768990994</v>
       </c>
       <c r="C15" s="3">
-        <v>4.1123969797882962</v>
+        <v>4.0032120460249603</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -16093,10 +16597,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>4.9760801015811991</v>
+        <v>5.0103494964623989</v>
       </c>
       <c r="C16" s="3">
-        <v>4.2347925099153754</v>
+        <v>4.2243263872393628</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -16104,10 +16608,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>5.0129471082696142</v>
+        <v>4.9491173145483423</v>
       </c>
       <c r="C17" s="3">
-        <v>4.2243772409680345</v>
+        <v>4.0103404623805972</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -16115,10 +16619,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>4.9799561945511321</v>
+        <v>4.9225087658212363</v>
       </c>
       <c r="C18" s="3">
-        <v>4.1336532493018483</v>
+        <v>4.4270531248372249</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -16126,10 +16630,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>5.0037304345460001</v>
+        <v>4.9751292765512316</v>
       </c>
       <c r="C19" s="3">
-        <v>4.0881209200332949</v>
+        <v>4.0824232434865024</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -16137,10 +16641,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>5.0090592271006429</v>
+        <v>5.044979582189165</v>
       </c>
       <c r="C20" s="3">
-        <v>4.1995390016612548</v>
+        <v>4.1179865320436067</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -16148,10 +16652,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>4.9074006155924232</v>
+        <v>5.0206745893273359</v>
       </c>
       <c r="C21" s="3">
-        <v>4.3490389565699035</v>
+        <v>4.4740788447386466</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -16159,10 +16663,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="3">
-        <v>4.9708151510664029</v>
+        <v>4.9708151510664011</v>
       </c>
       <c r="C22" s="3">
-        <v>4.0196681697715997</v>
+        <v>4.0196681697716325</v>
       </c>
     </row>
   </sheetData>
@@ -16184,7 +16688,7 @@
 #   Oscar Dowson 2014
 #   odow003@aucklanduni.ac.nz
 from pulp import *
-prob = LpProblem('ENGGEN403',LpMinimize)
+prob = LpProblem('ENGGEN403', LpMinimize)
 # ==========================================
 #   Calculated
 SPECIALISATIONS = list()
@@ -16195,81 +16699,101 @@
 for s in STUDENTS:
     if Ethnicity[s] not in ETHNICITIES:
         ETHNICITIES.append(Ethnicity[s])
-GROUPS = range(1,int(ngroups)+1)
-SG = [(s,g) for s in STUDENTS for g in GROUPS]
-M1 = int(len(STUDENTS)/ngroups)
+GROUPS = range(1, int(ngroups) + 1)
+SG = [(s, g) for s in STUDENTS for g in GROUPS]
+M1 = int(len(STUDENTS) / ngroups)
 M2 = M1+1
-J2 = int(len(STUDENTS) - M1*ngroups)
-J1 = int(ngroups-J2)
-GROUPS1 = range(1,J1+1)
-GROUPS2 = range(J1+1,int(ngroups)+1)
+J2 = int(len(STUDENTS) - M1 * ngroups)
+J1 = int(ngroups - J2)
+GROUPS1 = range(1, J1 + 1)
+GROUPS2 = range(J1 + 1, int(ngroups) + 1)
 Smin = {}
 for s in SPECIALISATIONS:
-    Smin[s] = int(sum([Spec[i].lower()==s.lower() for i in STUDENTS])/ngroups)
+    Smin[s] = int(sum([Spec[i].lower() == s.lower() for i in STUDENTS]) \
+                  / ngroups)
 Emin = {}
 for e in ETHNICITIES:
-    Emin[e] = int(sum([Ethnicity[i].lower()==e.lower() for i in STUDENTS])/ngroups)
-Fmin = int(sum([Gender[i].lower()=='f' for i in STUDENTS])/ngroups)
-GPAmean = sum([Gpa[i] for i in STUDENTS])/len(STUDENTS)
-Sart = [(s,g) for s in SPECIALISATIONS for g in GROUPS]
-Eart = [(e,g) for e in ETHNICITIES for g in GROUPS]
+    Emin[e] = int(sum([Ethnicity[i].lower() == e.lower() for i in STUDENTS]) \
+                  / ngroups)
+Fmin = int(sum([Gender[i].lower() == 'f' for i in STUDENTS]) / ngroups)
+GPAmean = sum([Gpa[i] for i in STUDENTS]) / len(STUDENTS)
+Sart = [(s, g) for s in SPECIALISATIONS for g in GROUPS]
+Eart = [(e, g) for e in ETHNICITIES for g in GROUPS]
 # =====================
 #   Variables
-x = LpVariable.dicts('x_var',SG,None,None,LpBinary)
-SA = LpVariable.dicts('specialisation_artificial',Sart)
-FA = LpVariable.dicts('female_artificial',GROUPS,0,500)
-EA = LpVariable.dicts('ethnicity_artificial',Eart,0,500)
-GPAmin = LpVariable('gpamin',0,9)
-GPAmax = LpVariable('gpamax',0,9)
-GPAvarmin = LpVariable('gpavarmin',0,25)
-GPAvarmax = LpVariable('gpavarmax',0,25)
+x = LpVariable.dicts('x_var', SG, None, None, LpBinary)
+SA = LpVariable.dicts('specialisation_artificial', Sart)
+FA = LpVariable.dicts('female_artificial', GROUPS, 0, 500)
+EA = LpVariable.dicts('ethnicity_artificial', Eart, 0, 500)
+GPAmin = LpVariable('gpamin', 0, 9)
+GPAmax = LpVariable('gpamax', 0, 9)
+GPAvarmin = LpVariable('gpavarmin', 0, 25)
+GPAvarmax = LpVariable('gpavarmax', 0, 25)
 # =====================
 #   Objective
-prob += mean_weight*(GPAmax-GPAmin) + var_weight*(GPAvarmax-GPAvarmin) + 1e4*(spec_weight*lpSum([SA[i] for i in Sart])+ gender_weight*lpSum([FA[i] for i in GROUPS])+ ethnicity_weight*lpSum([EA[i] for i in Eart])),'objective'
+prob += mean_weight * (GPAmax - GPAmin) + var_weight * (GPAvarmax - GPAvarmin) \
+        + 1e4 * (spec_weight * lpSum([SA[i] for i in Sart]) \
+                 + gender_weight * lpSum([FA[i] for i in GROUPS]) \
+                 + ethnicity_weight * lpSum([EA[i] for i in Eart]) \
+         ), 'objective'
 # =====================
 #   Constraints
 for s in STUDENTS:
-    prob += lpSum([x[(s,g)] for g in GROUPS])==1,'singleGroup_%s'%s
+    prob += lpSum([x[(s, g)] for g in GROUPS]) == 1, 'singleGroup_%s' % s
 for g in GROUPS1:
-    prob += lpSum([x[(s,g)] for s in STUDENTS]) == M1, 'size_g%d'%g
-    prob += lpSum([Gpa[s]*x[(s,g)] for s in STUDENTS]) &gt;= M1*GPAmin, 'cMinGPA_g%d'%g
-    prob += lpSum([Gpa[s]*x[(s,g)] for s in STUDENTS]) &lt;= M1*GPAmax, 'cMaxGPA_g%d'%g
-    prob += lpSum([pow(Gpa[s]-GPAmean,2)*x[(s,g)] for s in STUDENTS]) &gt;= M1*GPAvarmin, 'cGPAvarmin_g%d'%g
-    prob += lpSum([pow(Gpa[s]-GPAmean,2)*x[(s,g)] for s in STUDENTS]) &lt;= M1*GPAvarmax, 'cGPAvarmax_g%d'%g
+    prob += lpSum([x[(s, g)] for s in STUDENTS]) == M1, 'size_g%d' % g
+    prob += lpSum([Gpa[s] * x[(s, g)] for s in STUDENTS]) &gt;= M1*GPAmin, \
+    'cMinGPA_g%d' % g
+    prob += lpSum([Gpa[s] * x[(s, g)] for s in STUDENTS]) &lt;= M1*GPAmax, \
+    'cMaxGPA_g%d' % g
+    prob += lpSum([pow(Gpa[s] - GPAmean, 2) * x[(s, g)] for s in STUDENTS]) \
+    &gt;= M1 * GPAvarmin, 'cGPAvarmin_g%d' % g
+    prob += lpSum([pow(Gpa[s] - GPAmean, 2) * x[(s, g)] for s in STUDENTS]) \
+    &lt;= M1 * GPAvarmax, 'cGPAvarmax_g%d' % g
 for g in GROUPS2:
-    prob += lpSum([x[(s,g)] for s in STUDENTS]) == M2, 'size_g%d'%g
-    prob += lpSum([Gpa[s]*x[(s,g)] for s in STUDENTS]) &gt;= M2*GPAmin, 'cMinGPA_g%d'%g
-    prob += lpSum([Gpa[s]*x[(s,g)] for s in STUDENTS]) &lt;= M2*GPAmax, 'cMaxGPA_g%d'%g
-    prob += lpSum([pow(Gpa[s]-GPAmean,2)*x[(s,g)] for s in STUDENTS]) &gt;= M2*GPAvarmin, 'cGPAvarmin_g%d'%g
-    prob += lpSum([pow(Gpa[s]-GPAmean,2)*x[(s,g)] for s in STUDENTS]) &lt;= M2*GPAvarmax, 'cGPAvarmax_g%d'%g
-# Semi-relaxed constraints to enforce gender, specialisation and ethnicity equality
+    prob += lpSum([x[(s, g)] for s in STUDENTS]) == M2, 'size_g%d' % g
+    prob += lpSum([Gpa[s] * x[(s, g)] for s in STUDENTS]) &gt;= M2*GPAmin, \
+    'cMinGPA_g%d' % g
+    prob += lpSum([Gpa[s] * x[(s, g)] for s in STUDENTS]) &lt;= M2*GPAmax, \
+    'cMaxGPA_g%d' % g
+    prob += lpSum([pow(Gpa[s] - GPAmean, 2) * x[(s, g)] for s in STUDENTS]) \
+    &gt;= M2 * GPAvarmin, 'cGPAvarmin_g%d' % g
+    prob += lpSum([pow(Gpa[s] - GPAmean, 2) * x[(s, g)] for s in STUDENTS]) \
+    &lt;= M2 * GPAvarmax, 'cGPAvarmax_g%d' % g
+# Semi-relaxed constraints to enforce gender,
+# specialisation and ethnicity equality
 for g in GROUPS:
-    prob += lpSum([x[(s,g)] for s in STUDENTS if Gender[s].lower()=='f']) + FA[g] &gt;= Fmin, 'minF_g%d'%g
+    prob += lpSum([x[(s, g)] for s in STUDENTS if Gender[s].lower() == 'f']) \
+    + FA[g] &gt;= Fmin, 'minF_g%d' % g
     for k in SPECIALISATIONS:
-        prob += lpSum([x[(s,g)] for s in STUDENTS if Spec[s].lower()==k.lower()]) + SA[(k,g)]&gt;= Smin[k],'min_s%s_g%d'%(k,g)
+        prob += lpSum([x[(s, g)] for s in STUDENTS \
+                      if Spec[s].lower() == k.lower()]) \
+        + SA[(k, g)] &gt;= Smin[k], 'min_s%s_g%d' % (k, g)
     for e in ETHNICITIES:
-        prob += lpSum([x[(s,g)] for s in STUDENTS if Ethnicity[s].lower()==e.lower()]) + EA[(e,g)]&gt;= Emin[e],'min_e%s_g%d'%(e,g)
+        prob += lpSum([x[(s, g)] for s in STUDENTS \
+                      if Ethnicity[s].lower() == e.lower()]) \
+        + EA[(e, g)] &gt;= Emin[e], 'min_e%s_g%d' % (e, g)
 # =====================
 #   Solve
 print 'Solving...'
-prob.solve(solvers.PULP_CBC_CMD(msg=1,maxSeconds=timelimit))
+prob.solve(solvers.PULP_CBC_CMD(msg=1, maxSeconds=timelimit))
 # =====================
 #   Solution
 print LpStatus[prob.status]
-for s,g in SG:
-    if x[(s,g)].value()==1:
-        Groups[s]=g
-GPADIFF = GPAmax.value()-GPAmin.value()
-GPASD = GPAvarmax.value()-GPAvarmin.value()
-#Application.ActiveWorkbook.Charts('PuLPSolutionQuality').PivotTable.RefreshTable</FileText>
-      <ParentWorksheetName>PuLP</ParentWorksheetName>
+for s, g in SG:
+    if x[(s, g)].value() == 1:
+        Groups[s] = g
+GPADIFF = GPAmax.value() - GPAmin.value()
+GPASD = GPAvarmax.value() - GPAvarmin.value()
+</FileText>
+      <ParentWorksheetName>Model</ParentWorksheetName>
     </StoredFile>
     <StoredFile>
       <FileName>Untitled</FileName>
       <LanguageName>PuLP</LanguageName>
-      <ModelPaneVisible>true</ModelPaneVisible>
+      <ModelPaneVisible>false</ModelPaneVisible>
       <ModelSettings/>
-      <FileText>Application.ActiveWorkbook.PivotTables("PivotTable2").Name#PivotCache.Refresh</FileText>
+      <FileText/>
       <ParentWorksheetName>PivotChart</ParentWorksheetName>
     </StoredFile>
     <StoredFile>
@@ -16285,7 +16809,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F96EC416-2AA5-4372-BB3F-BD487FB4AE5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77EB5148-CE1C-4987-A009-38C523B80E8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://opensolver.org"/>

--- a/Group Allocator.xlsx
+++ b/Group Allocator.xlsx
@@ -17,6 +17,16 @@
     <sheet name="StudentDataEntry" sheetId="3" r:id="rId3"/>
     <sheet name="GroupList" sheetId="27" r:id="rId4"/>
     <sheet name="SummaryResults" sheetId="7" r:id="rId5"/>
+    <sheet name="g_GPA" sheetId="89" r:id="rId6"/>
+    <sheet name="g_Gender" sheetId="90" r:id="rId7"/>
+    <sheet name="g_A_spec" sheetId="91" r:id="rId8"/>
+    <sheet name="g_B_spec" sheetId="92" r:id="rId9"/>
+    <sheet name="g_C_spec" sheetId="93" r:id="rId10"/>
+    <sheet name="g_A_eth" sheetId="94" r:id="rId11"/>
+    <sheet name="g_B_eth" sheetId="95" r:id="rId12"/>
+    <sheet name="g_C_eth" sheetId="96" r:id="rId13"/>
+    <sheet name="g_D_eth" sheetId="97" r:id="rId14"/>
+    <sheet name="g_E_eth" sheetId="98" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="ethnicity" localSheetId="2">OFFSET(StudentDataEntry!$F$2,0,0,COUNTA(StudentDataEntry!$A:$A)-1,1)</definedName>
@@ -1048,6 +1058,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mean GPA and Variance of GPA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -1204,6 +1229,152 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GPA Variance</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>SummaryResults!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SummaryResults!$I$2:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.4947451872515192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4246136773399209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9326139607311803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9754603759204672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3049433611648427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6736652773919274</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9919316820726118</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7136610203278932</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7242057261132846</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6927527738975123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5072459691161693</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.2471597279499678</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.2161681268272142</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9094174424781802</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9325698450729472</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.1157628977435685</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0549417456923189</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9685067402172325</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.934226391113353</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3261673319380938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1213,21 +1384,40 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="849795728"/>
-        <c:axId val="723591808"/>
+        <c:axId val="849764760"/>
+        <c:axId val="849793768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="849795728"/>
+        <c:axId val="849764760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Group</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="723591808"/>
+        <c:crossAx val="849793768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1235,24 +1425,45 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="723591808"/>
+        <c:axId val="849793768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="9"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>GPA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="849795728"/>
+        <c:crossAx val="849764760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -1260,12 +1471,2828 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of E in each group</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>E</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>SummaryResults!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SummaryResults!$Q$2:$Q$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="717453968"/>
+        <c:axId val="717447696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="717453968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Group</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="717447696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="717447696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="27"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Number of Students</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="717453968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of Males and Females in each group</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Male</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>SummaryResults!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SummaryResults!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Female</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>SummaryResults!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SummaryResults!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="491850800"/>
+        <c:axId val="324041376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="491850800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Group</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="324041376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="324041376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="27"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Number of Students</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="491850800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number from A in each group</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>A</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>SummaryResults!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SummaryResults!$J$2:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="393434472"/>
+        <c:axId val="393436432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="393434472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Group</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="393436432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="393436432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="27"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Number of Students</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="393434472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number from B in each group</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>B</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>SummaryResults!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SummaryResults!$K$2:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="723585144"/>
+        <c:axId val="392724800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="723585144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Group</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="392724800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="392724800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="27"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Number of Students</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="723585144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number from C in each group</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>C</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>SummaryResults!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SummaryResults!$L$2:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="929723224"/>
+        <c:axId val="929723616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="929723224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Group</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="929723616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="929723616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="27"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Number of Students</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="929723224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of A in each group</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>A</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>SummaryResults!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SummaryResults!$M$2:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="929727144"/>
+        <c:axId val="929725184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="929727144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Group</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="929725184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="929725184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="27"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Number of Students</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="929727144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of B in each group</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>B</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>SummaryResults!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SummaryResults!$N$2:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="929738120"/>
+        <c:axId val="849768680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="929738120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Group</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="849768680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="849768680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="27"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Number of Students</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="929738120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of C in each group</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>C</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>SummaryResults!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SummaryResults!$O$2:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="717437112"/>
+        <c:axId val="717440248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="717437112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Group</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="717440248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="717440248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="27"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Number of Students</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="717437112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of D in each group</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>D</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>SummaryResults!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SummaryResults!$P$2:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="717439072"/>
+        <c:axId val="717441816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="717439072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Group</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="717441816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="717441816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="27"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Number of Students</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="717439072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="179" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1651,25 +4678,17 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668282" cy="6295014"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="63" name="Chart 62"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1682,7 +4701,250 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668282" cy="6295014"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2669,7 +5931,7 @@
   <dimension ref="A1:O501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20415,7 +23677,7 @@
   <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21455,8 +24717,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21825,6 +25086,7 @@
     a.FullSeriesCollection(1).Name = "Male"
     a.FullSeriesCollection(1).Values = ws.Range(ws.Cells(2, 6), ws.Cells(1 + number_groups, 6))
     a.FullSeriesCollection(1).XValues = x_axis_range
+    a.SeriesCollection().NewSeries()
     a.FullSeriesCollection(2).Name = "Female"
     a.FullSeriesCollection(2).Values = ws.Range(ws.Cells(2, 7), ws.Cells(1 + number_groups, 7))
     a.FullSeriesCollection(2).XValues = x_axis_range
@@ -21971,7 +25233,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69CC30D7-0C23-48A7-94B6-D3425D793938}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9538018-61DB-48A9-8C79-BCD108C72C60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://opensolver.org"/>
